--- a/src/test/data/anno_VerticalRecords_template.xlsx
+++ b/src/test/data/anno_VerticalRecords_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4335" yWindow="3195" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="4335" yWindow="3195" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="開始位置の指定" sheetId="1" r:id="rId1"/>
@@ -14,9 +14,15 @@
     <sheet name="レコードの設定" sheetId="5" r:id="rId5"/>
     <sheet name="余分なレコードの制御" sheetId="6" r:id="rId6"/>
     <sheet name="オプション設定（入力規則）" sheetId="7" r:id="rId7"/>
+    <sheet name="メソッドにアノテーションを設定" sheetId="8" r:id="rId8"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId9"/>
+  </externalReferences>
   <definedNames>
+    <definedName name="機能名" localSheetId="7">'[1]オプション設定（入力規則）'!$C$10</definedName>
     <definedName name="機能名">'オプション設定（入力規則）'!$D$12</definedName>
+    <definedName name="操作" localSheetId="7">'[1]オプション設定（入力規則）'!$C$30:$C$33</definedName>
     <definedName name="操作">'オプション設定（入力規則）'!$D$32:$G$32</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="79">
   <si>
     <t>○×一覧</t>
     <rPh sb="2" eb="4">
@@ -510,6 +516,32 @@
   </si>
   <si>
     <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名簿</t>
+    <rPh sb="0" eb="2">
+      <t>メイボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出欠</t>
+    <rPh sb="0" eb="2">
+      <t>シュッケツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アノテーション「@VerticalRecords」のテスタ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -689,7 +721,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -719,16 +751,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -744,6 +777,56 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="開始位置の指定"/>
+      <sheetName val="終了位置の指定"/>
+      <sheetName val="カラムの設定"/>
+      <sheetName val="マップカラムの設定"/>
+      <sheetName val="レコードの設定"/>
+      <sheetName val="余分なレコードの制御"/>
+      <sheetName val="オプション設定（入力規則）"/>
+      <sheetName val="オプション指定（コメント）"/>
+      <sheetName val="メソッドにアノテーションを設定"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6">
+        <row r="30">
+          <cell r="C30" t="str">
+            <v>参照</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="C31" t="str">
+            <v>作成</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="C32" t="str">
+            <v>削除</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="C33" t="str">
+            <v>更新</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1348,13 +1431,13 @@
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="27" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C11" s="15"/>
+      <c r="C11" s="27"/>
       <c r="D11" s="3"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -1633,7 +1716,7 @@
       <c r="D6" s="21"/>
     </row>
     <row r="7" spans="1:4" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="28" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="22" t="s">
@@ -1643,7 +1726,7 @@
       <c r="D7" s="24"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="26"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="18" t="s">
         <v>38</v>
       </c>
@@ -1666,7 +1749,7 @@
       <c r="C13" s="21"/>
     </row>
     <row r="14" spans="1:4" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="28" t="s">
         <v>36</v>
       </c>
       <c r="B14" s="22" t="s">
@@ -1675,7 +1758,7 @@
       <c r="C14" s="24"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="26"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="18" t="s">
         <v>38</v>
       </c>
@@ -1697,7 +1780,7 @@
       <c r="C19" s="21"/>
     </row>
     <row r="20" spans="1:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="28" t="s">
         <v>36</v>
       </c>
       <c r="B20" s="22" t="s">
@@ -1706,7 +1789,7 @@
       <c r="C20" s="24"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="26"/>
+      <c r="A21" s="29"/>
       <c r="B21" s="18" t="s">
         <v>38</v>
       </c>
@@ -1734,7 +1817,7 @@
       <c r="F25" s="21"/>
     </row>
     <row r="26" spans="1:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="28" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="22" t="s">
@@ -1746,7 +1829,7 @@
       <c r="F26" s="24"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="26"/>
+      <c r="A27" s="29"/>
       <c r="B27" s="18" t="s">
         <v>38</v>
       </c>
@@ -1793,7 +1876,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="28" t="s">
         <v>36</v>
       </c>
       <c r="B32" s="22" t="s">
@@ -1807,7 +1890,7 @@
       <c r="F32" s="24"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A33" s="26"/>
+      <c r="A33" s="29"/>
       <c r="B33" s="18" t="s">
         <v>38</v>
       </c>
@@ -1840,7 +1923,7 @@
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="28" t="s">
         <v>36</v>
       </c>
       <c r="B38" s="22" t="s">
@@ -1852,7 +1935,7 @@
       <c r="F38" s="24"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A39" s="26"/>
+      <c r="A39" s="29"/>
       <c r="B39" s="18" t="s">
         <v>38</v>
       </c>
@@ -1883,7 +1966,7 @@
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="25" t="s">
+      <c r="A44" s="28" t="s">
         <v>36</v>
       </c>
       <c r="B44" s="22" t="s">
@@ -1895,7 +1978,7 @@
       <c r="F44" s="24"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A45" s="26"/>
+      <c r="A45" s="29"/>
       <c r="B45" s="18" t="s">
         <v>38</v>
       </c>
@@ -1923,7 +2006,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -1965,20 +2048,20 @@
       <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="28"/>
+      <c r="C7" s="26"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="26"/>
-      <c r="B8" s="27" t="s">
+      <c r="A8" s="29"/>
+      <c r="B8" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="28"/>
+      <c r="C8" s="26"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
@@ -2034,28 +2117,28 @@
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="26"/>
-      <c r="B20" s="27" t="s">
+      <c r="A20" s="29"/>
+      <c r="B20" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
@@ -2090,24 +2173,24 @@
       <c r="E25" s="6"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="26"/>
-      <c r="B27" s="27" t="s">
+      <c r="A27" s="29"/>
+      <c r="B27" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B31" s="1" t="s">
@@ -2168,20 +2251,20 @@
       <c r="C37" s="6"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A38" s="26" t="s">
+      <c r="A38" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="B38" s="27" t="s">
+      <c r="B38" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="28"/>
+      <c r="C38" s="26"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A39" s="26"/>
-      <c r="B39" s="27" t="s">
+      <c r="A39" s="29"/>
+      <c r="B39" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="28"/>
+      <c r="C39" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2207,4 +2290,83 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B5" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B6" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="11"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C10" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C11" s="14">
+        <v>42095</v>
+      </c>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C12" s="14">
+        <v>42096</v>
+      </c>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C13" s="14">
+        <v>42097</v>
+      </c>
+      <c r="D13" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/data/anno_VerticalRecords_template.xlsx
+++ b/src/test/data/anno_VerticalRecords_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4335" yWindow="3195" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="7"/>
+    <workbookView xWindow="4335" yWindow="3195" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="開始位置の指定" sheetId="1" r:id="rId1"/>
@@ -15,9 +15,10 @@
     <sheet name="余分なレコードの制御" sheetId="6" r:id="rId6"/>
     <sheet name="オプション設定（入力規則）" sheetId="7" r:id="rId7"/>
     <sheet name="メソッドにアノテーションを設定" sheetId="8" r:id="rId8"/>
+    <sheet name="ラベルの位置の指定" sheetId="9" r:id="rId9"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
     <definedName name="機能名" localSheetId="7">'[1]オプション設定（入力規則）'!$C$10</definedName>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="85">
   <si>
     <t>○×一覧</t>
     <rPh sb="2" eb="4">
@@ -542,6 +543,48 @@
   </si>
   <si>
     <t>アノテーション「@VerticalRecords」のテスタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アノテーション「@VerticalRecords」のテスタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトルが左</t>
+    <rPh sb="5" eb="6">
+      <t>ヒダリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトルが左（離れている）</t>
+    <rPh sb="5" eb="6">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ハナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトルが上</t>
+    <rPh sb="5" eb="6">
+      <t>ウエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトルが上（離れている）</t>
+    <rPh sb="5" eb="6">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ハナ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -721,7 +764,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -757,6 +800,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1118,8 +1162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1431,13 +1475,13 @@
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="28" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C11" s="27"/>
+      <c r="C11" s="28"/>
       <c r="D11" s="3"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -1716,7 +1760,7 @@
       <c r="D6" s="21"/>
     </row>
     <row r="7" spans="1:4" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="29" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="22" t="s">
@@ -1726,7 +1770,7 @@
       <c r="D7" s="24"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="29"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="18" t="s">
         <v>38</v>
       </c>
@@ -1749,7 +1793,7 @@
       <c r="C13" s="21"/>
     </row>
     <row r="14" spans="1:4" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="29" t="s">
         <v>36</v>
       </c>
       <c r="B14" s="22" t="s">
@@ -1758,7 +1802,7 @@
       <c r="C14" s="24"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="29"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="18" t="s">
         <v>38</v>
       </c>
@@ -1780,7 +1824,7 @@
       <c r="C19" s="21"/>
     </row>
     <row r="20" spans="1:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="29" t="s">
         <v>36</v>
       </c>
       <c r="B20" s="22" t="s">
@@ -1789,7 +1833,7 @@
       <c r="C20" s="24"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="29"/>
+      <c r="A21" s="30"/>
       <c r="B21" s="18" t="s">
         <v>38</v>
       </c>
@@ -1817,7 +1861,7 @@
       <c r="F25" s="21"/>
     </row>
     <row r="26" spans="1:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="29" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="22" t="s">
@@ -1829,7 +1873,7 @@
       <c r="F26" s="24"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="29"/>
+      <c r="A27" s="30"/>
       <c r="B27" s="18" t="s">
         <v>38</v>
       </c>
@@ -1876,7 +1920,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="29" t="s">
         <v>36</v>
       </c>
       <c r="B32" s="22" t="s">
@@ -1890,7 +1934,7 @@
       <c r="F32" s="24"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A33" s="29"/>
+      <c r="A33" s="30"/>
       <c r="B33" s="18" t="s">
         <v>38</v>
       </c>
@@ -1923,7 +1967,7 @@
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="28" t="s">
+      <c r="A38" s="29" t="s">
         <v>36</v>
       </c>
       <c r="B38" s="22" t="s">
@@ -1935,7 +1979,7 @@
       <c r="F38" s="24"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A39" s="29"/>
+      <c r="A39" s="30"/>
       <c r="B39" s="18" t="s">
         <v>38</v>
       </c>
@@ -1966,7 +2010,7 @@
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="28" t="s">
+      <c r="A44" s="29" t="s">
         <v>36</v>
       </c>
       <c r="B44" s="22" t="s">
@@ -1978,7 +2022,7 @@
       <c r="F44" s="24"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A45" s="29"/>
+      <c r="A45" s="30"/>
       <c r="B45" s="18" t="s">
         <v>38</v>
       </c>
@@ -2048,7 +2092,7 @@
       <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="30" t="s">
         <v>51</v>
       </c>
       <c r="B7" s="25" t="s">
@@ -2057,7 +2101,7 @@
       <c r="C7" s="26"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="29"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="25" t="s">
         <v>54</v>
       </c>
@@ -2117,7 +2161,7 @@
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="30" t="s">
         <v>51</v>
       </c>
       <c r="B19" s="25" t="s">
@@ -2130,7 +2174,7 @@
       <c r="G19" s="26"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="29"/>
+      <c r="A20" s="30"/>
       <c r="B20" s="25" t="s">
         <v>60</v>
       </c>
@@ -2173,7 +2217,7 @@
       <c r="E25" s="6"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="30" t="s">
         <v>51</v>
       </c>
       <c r="B26" s="25" t="s">
@@ -2184,7 +2228,7 @@
       <c r="E26" s="26"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="29"/>
+      <c r="A27" s="30"/>
       <c r="B27" s="25" t="s">
         <v>60</v>
       </c>
@@ -2251,7 +2295,7 @@
       <c r="C37" s="6"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A38" s="29" t="s">
+      <c r="A38" s="30" t="s">
         <v>51</v>
       </c>
       <c r="B38" s="25" t="s">
@@ -2260,7 +2304,7 @@
       <c r="C38" s="26"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A39" s="29"/>
+      <c r="A39" s="30"/>
       <c r="B39" s="25" t="s">
         <v>53</v>
       </c>
@@ -2296,7 +2340,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -2369,4 +2413,128 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="14.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B5" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B6" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D10" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D11" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B15" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B16" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B17" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B18" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C21" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C23" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C24" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C25" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/data/anno_VerticalRecords_template.xlsx
+++ b/src/test/data/anno_VerticalRecords_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4335" yWindow="3195" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="8"/>
+    <workbookView xWindow="4335" yWindow="3195" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="開始位置の指定" sheetId="1" r:id="rId1"/>
@@ -16,9 +16,10 @@
     <sheet name="オプション設定（入力規則）" sheetId="7" r:id="rId7"/>
     <sheet name="メソッドにアノテーションを設定" sheetId="8" r:id="rId8"/>
     <sheet name="ラベルの位置の指定" sheetId="9" r:id="rId9"/>
+    <sheet name="データの開始位置" sheetId="10" r:id="rId10"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
   </externalReferences>
   <definedNames>
     <definedName name="機能名" localSheetId="7">'[1]オプション設定（入力規則）'!$C$10</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="93">
   <si>
     <t>○×一覧</t>
     <rPh sb="2" eb="4">
@@ -584,6 +585,59 @@
     </rPh>
     <rPh sb="7" eb="8">
       <t>ハナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アノテーション「@VerticalRecords」のテスタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データの開始位置が離れている</t>
+    <rPh sb="4" eb="6">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ハナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>算数</t>
+    <rPh sb="0" eb="2">
+      <t>サンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>国語</t>
+    <rPh sb="0" eb="2">
+      <t>コクゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト結果</t>
+    <rPh sb="3" eb="5">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見出しが結合</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見出しが結合（タイトルが上）</t>
+    <rPh sb="12" eb="13">
+      <t>ウエ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -636,7 +690,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -661,8 +715,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -759,12 +825,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -801,11 +891,28 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1281,6 +1388,159 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21:F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="16.25" customWidth="1"/>
+    <col min="3" max="3" width="12.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="28"/>
+      <c r="E4" s="26"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C5" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="28"/>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C6" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="29"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C7" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="29"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C8" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="29"/>
+      <c r="E8" s="30"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="34"/>
+      <c r="F12" s="26"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D13" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="34"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D14" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D15" s="36"/>
+      <c r="E15" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D16" s="37"/>
+      <c r="E16" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="30"/>
+    </row>
+    <row r="20" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="E20" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="E21" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" s="34"/>
+      <c r="G21" s="26"/>
+    </row>
+    <row r="22" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="E22" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="34"/>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="E23" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="F23" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="E24" s="36"/>
+      <c r="F24" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="E25" s="37"/>
+      <c r="F25" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
@@ -1475,13 +1735,13 @@
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C11" s="28"/>
+      <c r="C11" s="31"/>
       <c r="D11" s="3"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -1760,7 +2020,7 @@
       <c r="D6" s="21"/>
     </row>
     <row r="7" spans="1:4" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="32" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="22" t="s">
@@ -1770,7 +2030,7 @@
       <c r="D7" s="24"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="30"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="18" t="s">
         <v>38</v>
       </c>
@@ -1793,7 +2053,7 @@
       <c r="C13" s="21"/>
     </row>
     <row r="14" spans="1:4" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="32" t="s">
         <v>36</v>
       </c>
       <c r="B14" s="22" t="s">
@@ -1802,7 +2062,7 @@
       <c r="C14" s="24"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="30"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="18" t="s">
         <v>38</v>
       </c>
@@ -1824,7 +2084,7 @@
       <c r="C19" s="21"/>
     </row>
     <row r="20" spans="1:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="32" t="s">
         <v>36</v>
       </c>
       <c r="B20" s="22" t="s">
@@ -1833,7 +2093,7 @@
       <c r="C20" s="24"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="30"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="18" t="s">
         <v>38</v>
       </c>
@@ -1861,7 +2121,7 @@
       <c r="F25" s="21"/>
     </row>
     <row r="26" spans="1:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="32" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="22" t="s">
@@ -1873,7 +2133,7 @@
       <c r="F26" s="24"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="30"/>
+      <c r="A27" s="33"/>
       <c r="B27" s="18" t="s">
         <v>38</v>
       </c>
@@ -1920,7 +2180,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="32" t="s">
         <v>36</v>
       </c>
       <c r="B32" s="22" t="s">
@@ -1934,7 +2194,7 @@
       <c r="F32" s="24"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A33" s="30"/>
+      <c r="A33" s="33"/>
       <c r="B33" s="18" t="s">
         <v>38</v>
       </c>
@@ -1967,7 +2227,7 @@
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="29" t="s">
+      <c r="A38" s="32" t="s">
         <v>36</v>
       </c>
       <c r="B38" s="22" t="s">
@@ -1979,7 +2239,7 @@
       <c r="F38" s="24"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A39" s="30"/>
+      <c r="A39" s="33"/>
       <c r="B39" s="18" t="s">
         <v>38</v>
       </c>
@@ -2010,7 +2270,7 @@
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="29" t="s">
+      <c r="A44" s="32" t="s">
         <v>36</v>
       </c>
       <c r="B44" s="22" t="s">
@@ -2022,7 +2282,7 @@
       <c r="F44" s="24"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A45" s="30"/>
+      <c r="A45" s="33"/>
       <c r="B45" s="18" t="s">
         <v>38</v>
       </c>
@@ -2092,7 +2352,7 @@
       <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="33" t="s">
         <v>51</v>
       </c>
       <c r="B7" s="25" t="s">
@@ -2101,7 +2361,7 @@
       <c r="C7" s="26"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="30"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="25" t="s">
         <v>54</v>
       </c>
@@ -2161,7 +2421,7 @@
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="33" t="s">
         <v>51</v>
       </c>
       <c r="B19" s="25" t="s">
@@ -2174,7 +2434,7 @@
       <c r="G19" s="26"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="30"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="25" t="s">
         <v>60</v>
       </c>
@@ -2217,7 +2477,7 @@
       <c r="E25" s="6"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="33" t="s">
         <v>51</v>
       </c>
       <c r="B26" s="25" t="s">
@@ -2228,7 +2488,7 @@
       <c r="E26" s="26"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="30"/>
+      <c r="A27" s="33"/>
       <c r="B27" s="25" t="s">
         <v>60</v>
       </c>
@@ -2295,7 +2555,7 @@
       <c r="C37" s="6"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A38" s="30" t="s">
+      <c r="A38" s="33" t="s">
         <v>51</v>
       </c>
       <c r="B38" s="25" t="s">
@@ -2304,7 +2564,7 @@
       <c r="C38" s="26"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A39" s="30"/>
+      <c r="A39" s="33"/>
       <c r="B39" s="25" t="s">
         <v>53</v>
       </c>
@@ -2419,7 +2679,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4:D6"/>
     </sheetView>
   </sheetViews>

--- a/src/test/data/anno_VerticalRecords_template.xlsx
+++ b/src/test/data/anno_VerticalRecords_template.xlsx
@@ -16,10 +16,11 @@
     <sheet name="オプション設定（入力規則）" sheetId="7" r:id="rId7"/>
     <sheet name="メソッドにアノテーションを設定" sheetId="8" r:id="rId8"/>
     <sheet name="ラベルの位置の指定" sheetId="9" r:id="rId9"/>
-    <sheet name="データの開始位置" sheetId="10" r:id="rId10"/>
+    <sheet name="正規表現で一致" sheetId="11" r:id="rId10"/>
+    <sheet name="データの開始位置" sheetId="10" r:id="rId11"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
   </externalReferences>
   <definedNames>
     <definedName name="機能名" localSheetId="7">'[1]オプション設定（入力規則）'!$C$10</definedName>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="106">
   <si>
     <t>○×一覧</t>
     <rPh sb="2" eb="4">
@@ -638,6 +639,132 @@
     <t>見出しが結合（タイトルが上）</t>
     <rPh sb="12" eb="13">
       <t>ウエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アノテーション「@VerticalRecords」のテスタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>測定結果（通常）</t>
+    <rPh sb="0" eb="2">
+      <t>ソクテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ツウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1回目</t>
+    <rPh sb="1" eb="3">
+      <t>カイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2回目</t>
+    <rPh sb="1" eb="3">
+      <t>カイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3回目</t>
+    <rPh sb="1" eb="3">
+      <t>カイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 測定結果
+[タイトルが正規表現]  </t>
+    <rPh sb="1" eb="3">
+      <t>ソクテイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セイキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>測定結果（見出しが正規表現）</t>
+    <rPh sb="0" eb="2">
+      <t>ソクテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ミダ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セイキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前
+（必須）</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>測定結果（終端が正規表現）</t>
+    <rPh sb="0" eb="2">
+      <t>ソクテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュウタン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セイキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 【合計】 </t>
+    <rPh sb="2" eb="4">
+      <t>ゴウケイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -854,7 +981,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -896,15 +1023,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -913,6 +1040,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1390,9 +1529,188 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="15.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="26"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C5" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C6" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C7" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C8" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="12" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B12" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="26"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C13" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C14" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C15" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C16" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="26"/>
+    </row>
+    <row r="20" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="C20" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C21" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C22" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C23" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23" s="6"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B27" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="C28" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="30" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C29" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="30">
+        <f>SUM(D29:E29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C30" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="30">
+        <f>SUM(D30:E30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C31" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="30">
+        <f>SUM(D31:E31)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21:F21"/>
     </sheetView>
   </sheetViews>
@@ -1449,17 +1767,17 @@
       <c r="C12" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="E12" s="34"/>
+      <c r="E12" s="38"/>
       <c r="F12" s="26"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="D13" s="34" t="s">
+      <c r="D13" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="34"/>
+      <c r="E13" s="38"/>
       <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
@@ -1491,17 +1809,17 @@
       </c>
     </row>
     <row r="21" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="E21" s="34" t="s">
+      <c r="E21" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="F21" s="34"/>
+      <c r="F21" s="38"/>
       <c r="G21" s="26"/>
     </row>
     <row r="22" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="E22" s="34" t="s">
+      <c r="E22" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="34"/>
+      <c r="F22" s="38"/>
       <c r="G22" s="6"/>
     </row>
     <row r="23" spans="5:7" x14ac:dyDescent="0.15">
@@ -1735,13 +2053,13 @@
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="32" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C11" s="31"/>
+      <c r="C11" s="32"/>
       <c r="D11" s="3"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -2020,7 +2338,7 @@
       <c r="D6" s="21"/>
     </row>
     <row r="7" spans="1:4" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="33" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="22" t="s">
@@ -2030,7 +2348,7 @@
       <c r="D7" s="24"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="33"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="18" t="s">
         <v>38</v>
       </c>
@@ -2053,7 +2371,7 @@
       <c r="C13" s="21"/>
     </row>
     <row r="14" spans="1:4" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="33" t="s">
         <v>36</v>
       </c>
       <c r="B14" s="22" t="s">
@@ -2062,7 +2380,7 @@
       <c r="C14" s="24"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="33"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="18" t="s">
         <v>38</v>
       </c>
@@ -2084,7 +2402,7 @@
       <c r="C19" s="21"/>
     </row>
     <row r="20" spans="1:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="33" t="s">
         <v>36</v>
       </c>
       <c r="B20" s="22" t="s">
@@ -2093,7 +2411,7 @@
       <c r="C20" s="24"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="33"/>
+      <c r="A21" s="34"/>
       <c r="B21" s="18" t="s">
         <v>38</v>
       </c>
@@ -2121,7 +2439,7 @@
       <c r="F25" s="21"/>
     </row>
     <row r="26" spans="1:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="33" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="22" t="s">
@@ -2133,7 +2451,7 @@
       <c r="F26" s="24"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="33"/>
+      <c r="A27" s="34"/>
       <c r="B27" s="18" t="s">
         <v>38</v>
       </c>
@@ -2180,7 +2498,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="32" t="s">
+      <c r="A32" s="33" t="s">
         <v>36</v>
       </c>
       <c r="B32" s="22" t="s">
@@ -2194,7 +2512,7 @@
       <c r="F32" s="24"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A33" s="33"/>
+      <c r="A33" s="34"/>
       <c r="B33" s="18" t="s">
         <v>38</v>
       </c>
@@ -2227,7 +2545,7 @@
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="33" t="s">
         <v>36</v>
       </c>
       <c r="B38" s="22" t="s">
@@ -2239,7 +2557,7 @@
       <c r="F38" s="24"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A39" s="33"/>
+      <c r="A39" s="34"/>
       <c r="B39" s="18" t="s">
         <v>38</v>
       </c>
@@ -2270,7 +2588,7 @@
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="32" t="s">
+      <c r="A44" s="33" t="s">
         <v>36</v>
       </c>
       <c r="B44" s="22" t="s">
@@ -2282,7 +2600,7 @@
       <c r="F44" s="24"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A45" s="33"/>
+      <c r="A45" s="34"/>
       <c r="B45" s="18" t="s">
         <v>38</v>
       </c>
@@ -2352,7 +2670,7 @@
       <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="34" t="s">
         <v>51</v>
       </c>
       <c r="B7" s="25" t="s">
@@ -2361,7 +2679,7 @@
       <c r="C7" s="26"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="33"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="25" t="s">
         <v>54</v>
       </c>
@@ -2421,7 +2739,7 @@
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="34" t="s">
         <v>51</v>
       </c>
       <c r="B19" s="25" t="s">
@@ -2434,7 +2752,7 @@
       <c r="G19" s="26"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="33"/>
+      <c r="A20" s="34"/>
       <c r="B20" s="25" t="s">
         <v>60</v>
       </c>
@@ -2477,7 +2795,7 @@
       <c r="E25" s="6"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="33" t="s">
+      <c r="A26" s="34" t="s">
         <v>51</v>
       </c>
       <c r="B26" s="25" t="s">
@@ -2488,7 +2806,7 @@
       <c r="E26" s="26"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="33"/>
+      <c r="A27" s="34"/>
       <c r="B27" s="25" t="s">
         <v>60</v>
       </c>
@@ -2555,7 +2873,7 @@
       <c r="C37" s="6"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A38" s="33" t="s">
+      <c r="A38" s="34" t="s">
         <v>51</v>
       </c>
       <c r="B38" s="25" t="s">
@@ -2564,7 +2882,7 @@
       <c r="C38" s="26"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A39" s="33"/>
+      <c r="A39" s="34"/>
       <c r="B39" s="25" t="s">
         <v>53</v>
       </c>

--- a/src/test/data/anno_VerticalRecords_template.xlsx
+++ b/src/test/data/anno_VerticalRecords_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4335" yWindow="3195" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="9"/>
+    <workbookView xWindow="4335" yWindow="3195" windowWidth="14805" windowHeight="8010" firstSheet="7" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="開始位置の指定" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="111">
   <si>
     <t>○×一覧</t>
     <rPh sb="2" eb="4">
@@ -765,6 +765,42 @@
     <t xml:space="preserve"> 【合計】 </t>
     <rPh sb="2" eb="4">
       <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップカラム（終了条件がある）</t>
+    <rPh sb="7" eb="9">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考
+（オプション）</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -981,7 +1017,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1026,6 +1062,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1045,14 +1090,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1061,6 +1103,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFFCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1082,6 +1129,8 @@
       <sheetName val="オプション設定（入力規則）"/>
       <sheetName val="オプション指定（コメント）"/>
       <sheetName val="メソッドにアノテーションを設定"/>
+      <sheetName val="データの開始位置"/>
+      <sheetName val="正規表現で一致"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -1114,6 +1163,8 @@
       </sheetData>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1529,15 +1580,16 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="15.75" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
@@ -1578,8 +1630,14 @@
       </c>
       <c r="D8" s="6"/>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C9" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="6"/>
+    </row>
     <row r="12" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="32" t="s">
         <v>100</v>
       </c>
       <c r="C12" s="31" t="s">
@@ -1611,76 +1669,77 @@
       </c>
       <c r="D16" s="6"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B19" s="1" t="s">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C17" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B20" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C20" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="D19" s="26"/>
-    </row>
-    <row r="20" spans="2:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="C20" s="40" t="s">
+      <c r="D20" s="26"/>
+    </row>
+    <row r="21" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="C21" s="33" t="s">
         <v>103</v>
-      </c>
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C21" s="31" t="s">
-        <v>97</v>
       </c>
       <c r="D21" s="6"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C22" s="31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D22" s="6"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C23" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" s="6"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C24" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="D23" s="6"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B27" s="1" t="s">
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" spans="2:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="C25" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="D25" s="6"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B28" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C27" s="31" t="s">
+      <c r="C28" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="41">
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="34">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="2:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="C28" s="40" t="s">
+    <row r="29" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="C29" s="33" t="s">
         <v>103</v>
-      </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="30" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C29" s="31" t="s">
-        <v>97</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
-      <c r="F29" s="30">
-        <f>SUM(D29:E29)</f>
-        <v>0</v>
+      <c r="F29" s="30" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C30" s="31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -1691,7 +1750,7 @@
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C31" s="31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
@@ -1699,6 +1758,25 @@
         <f>SUM(D31:E31)</f>
         <v>0</v>
       </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C32" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="30">
+        <f>SUM(D32:E32)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="C33" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1767,21 +1845,21 @@
       <c r="C12" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D12" s="38" t="s">
+      <c r="D12" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="E12" s="38"/>
+      <c r="E12" s="41"/>
       <c r="F12" s="26"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="38"/>
+      <c r="E13" s="41"/>
       <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="D14" s="35" t="s">
+      <c r="D14" s="38" t="s">
         <v>90</v>
       </c>
       <c r="E14" s="29" t="s">
@@ -1790,14 +1868,14 @@
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="D15" s="36"/>
+      <c r="D15" s="39"/>
       <c r="E15" s="29" t="s">
         <v>89</v>
       </c>
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="D16" s="37"/>
+      <c r="D16" s="40"/>
       <c r="E16" s="29" t="s">
         <v>11</v>
       </c>
@@ -1809,21 +1887,21 @@
       </c>
     </row>
     <row r="21" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="E21" s="38" t="s">
+      <c r="E21" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="F21" s="38"/>
+      <c r="F21" s="41"/>
       <c r="G21" s="26"/>
     </row>
     <row r="22" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="E22" s="38" t="s">
+      <c r="E22" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="38"/>
+      <c r="F22" s="41"/>
       <c r="G22" s="6"/>
     </row>
     <row r="23" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="E23" s="35" t="s">
+      <c r="E23" s="38" t="s">
         <v>90</v>
       </c>
       <c r="F23" s="29" t="s">
@@ -1832,14 +1910,14 @@
       <c r="G23" s="6"/>
     </row>
     <row r="24" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="E24" s="36"/>
+      <c r="E24" s="39"/>
       <c r="F24" s="29" t="s">
         <v>89</v>
       </c>
       <c r="G24" s="6"/>
     </row>
     <row r="25" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="E25" s="37"/>
+      <c r="E25" s="40"/>
       <c r="F25" s="29" t="s">
         <v>11</v>
       </c>
@@ -2053,13 +2131,13 @@
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="35" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C11" s="32"/>
+      <c r="C11" s="35"/>
       <c r="D11" s="3"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -2148,10 +2226,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2231,6 +2309,45 @@
         <v>42097</v>
       </c>
       <c r="C14" s="3"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" s="6"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B18" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="6"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B19" s="14">
+        <v>42095</v>
+      </c>
+      <c r="C19" s="6"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B20" s="14">
+        <v>42096</v>
+      </c>
+      <c r="C20" s="6"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B21" s="14">
+        <v>42097</v>
+      </c>
+      <c r="C21" s="6"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B22" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2338,7 +2455,7 @@
       <c r="D6" s="21"/>
     </row>
     <row r="7" spans="1:4" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="36" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="22" t="s">
@@ -2348,7 +2465,7 @@
       <c r="D7" s="24"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="34"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="18" t="s">
         <v>38</v>
       </c>
@@ -2371,7 +2488,7 @@
       <c r="C13" s="21"/>
     </row>
     <row r="14" spans="1:4" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="36" t="s">
         <v>36</v>
       </c>
       <c r="B14" s="22" t="s">
@@ -2380,7 +2497,7 @@
       <c r="C14" s="24"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="34"/>
+      <c r="A15" s="37"/>
       <c r="B15" s="18" t="s">
         <v>38</v>
       </c>
@@ -2402,7 +2519,7 @@
       <c r="C19" s="21"/>
     </row>
     <row r="20" spans="1:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="36" t="s">
         <v>36</v>
       </c>
       <c r="B20" s="22" t="s">
@@ -2411,7 +2528,7 @@
       <c r="C20" s="24"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="34"/>
+      <c r="A21" s="37"/>
       <c r="B21" s="18" t="s">
         <v>38</v>
       </c>
@@ -2439,7 +2556,7 @@
       <c r="F25" s="21"/>
     </row>
     <row r="26" spans="1:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="33" t="s">
+      <c r="A26" s="36" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="22" t="s">
@@ -2451,7 +2568,7 @@
       <c r="F26" s="24"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="34"/>
+      <c r="A27" s="37"/>
       <c r="B27" s="18" t="s">
         <v>38</v>
       </c>
@@ -2498,7 +2615,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="33" t="s">
+      <c r="A32" s="36" t="s">
         <v>36</v>
       </c>
       <c r="B32" s="22" t="s">
@@ -2512,7 +2629,7 @@
       <c r="F32" s="24"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A33" s="34"/>
+      <c r="A33" s="37"/>
       <c r="B33" s="18" t="s">
         <v>38</v>
       </c>
@@ -2545,7 +2662,7 @@
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="33" t="s">
+      <c r="A38" s="36" t="s">
         <v>36</v>
       </c>
       <c r="B38" s="22" t="s">
@@ -2557,7 +2674,7 @@
       <c r="F38" s="24"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A39" s="34"/>
+      <c r="A39" s="37"/>
       <c r="B39" s="18" t="s">
         <v>38</v>
       </c>
@@ -2588,7 +2705,7 @@
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="33" t="s">
+      <c r="A44" s="36" t="s">
         <v>36</v>
       </c>
       <c r="B44" s="22" t="s">
@@ -2600,7 +2717,7 @@
       <c r="F44" s="24"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A45" s="34"/>
+      <c r="A45" s="37"/>
       <c r="B45" s="18" t="s">
         <v>38</v>
       </c>
@@ -2670,7 +2787,7 @@
       <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="37" t="s">
         <v>51</v>
       </c>
       <c r="B7" s="25" t="s">
@@ -2679,7 +2796,7 @@
       <c r="C7" s="26"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="34"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="25" t="s">
         <v>54</v>
       </c>
@@ -2739,7 +2856,7 @@
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="37" t="s">
         <v>51</v>
       </c>
       <c r="B19" s="25" t="s">
@@ -2752,7 +2869,7 @@
       <c r="G19" s="26"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="34"/>
+      <c r="A20" s="37"/>
       <c r="B20" s="25" t="s">
         <v>60</v>
       </c>
@@ -2795,7 +2912,7 @@
       <c r="E25" s="6"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="34" t="s">
+      <c r="A26" s="37" t="s">
         <v>51</v>
       </c>
       <c r="B26" s="25" t="s">
@@ -2806,7 +2923,7 @@
       <c r="E26" s="26"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="34"/>
+      <c r="A27" s="37"/>
       <c r="B27" s="25" t="s">
         <v>60</v>
       </c>
@@ -2873,7 +2990,7 @@
       <c r="C37" s="6"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A38" s="34" t="s">
+      <c r="A38" s="37" t="s">
         <v>51</v>
       </c>
       <c r="B38" s="25" t="s">
@@ -2882,7 +2999,7 @@
       <c r="C38" s="26"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A39" s="34"/>
+      <c r="A39" s="37"/>
       <c r="B39" s="25" t="s">
         <v>53</v>
       </c>

--- a/src/test/data/anno_VerticalRecords_template.xlsx
+++ b/src/test/data/anno_VerticalRecords_template.xlsx
@@ -4,28 +4,30 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4335" yWindow="3195" windowWidth="14805" windowHeight="8010" firstSheet="7" activeTab="9"/>
+    <workbookView xWindow="10140" yWindow="3225" windowWidth="14805" windowHeight="8010" firstSheet="8" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="開始位置の指定" sheetId="1" r:id="rId1"/>
     <sheet name="終了位置の指定" sheetId="2" r:id="rId2"/>
-    <sheet name="カラムの設定" sheetId="3" r:id="rId3"/>
-    <sheet name="マップカラムの設定" sheetId="4" r:id="rId4"/>
-    <sheet name="レコードの設定" sheetId="5" r:id="rId5"/>
-    <sheet name="余分なレコードの制御" sheetId="6" r:id="rId6"/>
-    <sheet name="オプション設定（入力規則）" sheetId="7" r:id="rId7"/>
-    <sheet name="メソッドにアノテーションを設定" sheetId="8" r:id="rId8"/>
-    <sheet name="ラベルの位置の指定" sheetId="9" r:id="rId9"/>
-    <sheet name="正規表現で一致" sheetId="11" r:id="rId10"/>
-    <sheet name="データの開始位置" sheetId="10" r:id="rId11"/>
+    <sheet name="見出しの空白" sheetId="12" r:id="rId3"/>
+    <sheet name="カラムの設定" sheetId="3" r:id="rId4"/>
+    <sheet name="マップカラムの設定" sheetId="4" r:id="rId5"/>
+    <sheet name="レコードの設定" sheetId="5" r:id="rId6"/>
+    <sheet name="余分なレコードの制御" sheetId="6" r:id="rId7"/>
+    <sheet name="オプション設定（入力規則）" sheetId="7" r:id="rId8"/>
+    <sheet name="メソッドにアノテーションを設定" sheetId="8" r:id="rId9"/>
+    <sheet name="ラベルの位置の指定" sheetId="9" r:id="rId10"/>
+    <sheet name="正規表現で一致" sheetId="11" r:id="rId11"/>
+    <sheet name="データの開始位置" sheetId="10" r:id="rId12"/>
+    <sheet name="ネストした表" sheetId="13" r:id="rId13"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId12"/>
+    <externalReference r:id="rId14"/>
   </externalReferences>
   <definedNames>
-    <definedName name="機能名" localSheetId="7">'[1]オプション設定（入力規則）'!$C$10</definedName>
+    <definedName name="機能名" localSheetId="8">'[1]オプション設定（入力規則）'!$C$10</definedName>
     <definedName name="機能名">'オプション設定（入力規則）'!$D$12</definedName>
-    <definedName name="操作" localSheetId="7">'[1]オプション設定（入力規則）'!$C$30:$C$33</definedName>
+    <definedName name="操作" localSheetId="8">'[1]オプション設定（入力規則）'!$C$30:$C$33</definedName>
     <definedName name="操作">'オプション設定（入力規則）'!$D$32:$G$32</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="133">
   <si>
     <t>○×一覧</t>
     <rPh sb="2" eb="4">
@@ -802,6 +804,178 @@
     <rPh sb="0" eb="2">
       <t>ビコウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名簿（集合）</t>
+    <rPh sb="0" eb="2">
+      <t>メイボ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュウゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アノテーション「@XlsVerticalRecords」のテスタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※属性rangeの確認</t>
+    <rPh sb="1" eb="3">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見出しに空白なし</t>
+    <rPh sb="0" eb="2">
+      <t>ミダ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>クウハク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電話番号</t>
+    <rPh sb="0" eb="2">
+      <t>デンワ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見出しに空白がある</t>
+    <rPh sb="0" eb="2">
+      <t>ミダ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>クウハク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開始位置がずれている</t>
+    <rPh sb="0" eb="2">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アノテーション「@VerticalRecords」のテスタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通常の表</t>
+    <rPh sb="0" eb="2">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大分類</t>
+    <rPh sb="0" eb="3">
+      <t>ダイブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明（大分類）</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ダイブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中分類</t>
+    <rPh sb="0" eb="3">
+      <t>チュウブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明（中分類）</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空のレコードがある表</t>
+    <rPh sb="0" eb="1">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見出しが結合している表</t>
+    <rPh sb="0" eb="2">
+      <t>ミダ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケツゴウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1対1のネスト</t>
+    <rPh sb="1" eb="2">
+      <t>タイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラス</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -809,10 +983,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -852,8 +1027,23 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -887,6 +1077,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1017,7 +1219,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1072,6 +1274,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1090,11 +1300,44 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1122,6 +1365,7 @@
     <sheetNames>
       <sheetName val="開始位置の指定"/>
       <sheetName val="終了位置の指定"/>
+      <sheetName val="見出しの空白"/>
       <sheetName val="カラムの設定"/>
       <sheetName val="マップカラムの設定"/>
       <sheetName val="レコードの設定"/>
@@ -1131,6 +1375,7 @@
       <sheetName val="メソッドにアノテーションを設定"/>
       <sheetName val="データの開始位置"/>
       <sheetName val="正規表現で一致"/>
+      <sheetName val="ネストした表"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -1139,7 +1384,8 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7">
         <row r="30">
           <cell r="C30" t="str">
             <v>参照</v>
@@ -1161,10 +1407,11 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1580,9 +1827,133 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="14.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B5" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B6" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D10" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D11" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B15" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B16" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B17" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B18" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C21" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C23" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C24" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C25" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -1631,7 +2002,7 @@
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="36" t="s">
         <v>109</v>
       </c>
       <c r="D9" s="6"/>
@@ -1670,7 +2041,7 @@
       <c r="D16" s="6"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C17" s="42" t="s">
+      <c r="C17" s="36" t="s">
         <v>109</v>
       </c>
       <c r="D17" s="6"/>
@@ -1708,8 +2079,8 @@
       </c>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="2:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="C25" s="43" t="s">
+    <row r="25" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="C25" s="37" t="s">
         <v>110</v>
       </c>
       <c r="D25" s="6"/>
@@ -1770,8 +2141,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="C33" s="43" t="s">
+    <row r="33" spans="3:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="C33" s="37" t="s">
         <v>110</v>
       </c>
       <c r="D33" s="6"/>
@@ -1784,7 +2155,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
@@ -1845,21 +2216,21 @@
       <c r="C12" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="D12" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="E12" s="41"/>
+      <c r="E12" s="45"/>
       <c r="F12" s="26"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="D13" s="41" t="s">
+      <c r="D13" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="41"/>
+      <c r="E13" s="45"/>
       <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="D14" s="38" t="s">
+      <c r="D14" s="42" t="s">
         <v>90</v>
       </c>
       <c r="E14" s="29" t="s">
@@ -1868,14 +2239,14 @@
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="D15" s="39"/>
+      <c r="D15" s="43"/>
       <c r="E15" s="29" t="s">
         <v>89</v>
       </c>
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="D16" s="40"/>
+      <c r="D16" s="44"/>
       <c r="E16" s="29" t="s">
         <v>11</v>
       </c>
@@ -1887,21 +2258,21 @@
       </c>
     </row>
     <row r="21" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="E21" s="41" t="s">
+      <c r="E21" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="F21" s="41"/>
+      <c r="F21" s="45"/>
       <c r="G21" s="26"/>
     </row>
     <row r="22" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="E22" s="41" t="s">
+      <c r="E22" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="41"/>
+      <c r="F22" s="45"/>
       <c r="G22" s="6"/>
     </row>
     <row r="23" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="E23" s="38" t="s">
+      <c r="E23" s="42" t="s">
         <v>90</v>
       </c>
       <c r="F23" s="29" t="s">
@@ -1910,14 +2281,14 @@
       <c r="G23" s="6"/>
     </row>
     <row r="24" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="E24" s="39"/>
+      <c r="E24" s="43"/>
       <c r="F24" s="29" t="s">
         <v>89</v>
       </c>
       <c r="G24" s="6"/>
     </row>
     <row r="25" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="E25" s="40"/>
+      <c r="E25" s="44"/>
       <c r="F25" s="29" t="s">
         <v>11</v>
       </c>
@@ -1931,6 +2302,684 @@
     <mergeCell ref="D14:D16"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="E22:F22"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20:X25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="B4" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" s="48"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="C5" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" s="48"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="C6" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" s="48"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="C7" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="48"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="C8" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" s="48"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="C9" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="48"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" s="48">
+        <v>1</v>
+      </c>
+      <c r="E12" s="48">
+        <v>2</v>
+      </c>
+      <c r="F12" s="48">
+        <v>3</v>
+      </c>
+      <c r="G12" s="48">
+        <v>4</v>
+      </c>
+      <c r="H12" s="48">
+        <v>5</v>
+      </c>
+      <c r="I12" s="48">
+        <v>6</v>
+      </c>
+      <c r="J12" s="48">
+        <v>7</v>
+      </c>
+      <c r="K12" s="48">
+        <v>8</v>
+      </c>
+      <c r="L12" s="48">
+        <v>9</v>
+      </c>
+      <c r="M12" s="48">
+        <v>10</v>
+      </c>
+      <c r="N12" s="48">
+        <v>11</v>
+      </c>
+      <c r="O12" s="48">
+        <v>12</v>
+      </c>
+      <c r="P12" s="48">
+        <v>13</v>
+      </c>
+      <c r="Q12" s="48">
+        <v>14</v>
+      </c>
+      <c r="R12" s="48">
+        <v>15</v>
+      </c>
+      <c r="S12" s="48">
+        <v>16</v>
+      </c>
+      <c r="T12" s="48">
+        <v>17</v>
+      </c>
+      <c r="U12" s="48">
+        <v>18</v>
+      </c>
+      <c r="V12" s="48">
+        <v>19</v>
+      </c>
+      <c r="W12" s="48">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="C13" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="48"/>
+      <c r="R13" s="48"/>
+      <c r="S13" s="48"/>
+      <c r="T13" s="48"/>
+      <c r="U13" s="48"/>
+      <c r="V13" s="48"/>
+      <c r="W13" s="48"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="C14" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" s="48">
+        <v>21</v>
+      </c>
+      <c r="E14" s="48">
+        <v>22</v>
+      </c>
+      <c r="F14" s="48">
+        <v>23</v>
+      </c>
+      <c r="G14" s="48">
+        <v>24</v>
+      </c>
+      <c r="H14" s="48">
+        <v>25</v>
+      </c>
+      <c r="I14" s="48">
+        <v>26</v>
+      </c>
+      <c r="J14" s="48">
+        <v>27</v>
+      </c>
+      <c r="K14" s="48">
+        <v>28</v>
+      </c>
+      <c r="L14" s="48">
+        <v>29</v>
+      </c>
+      <c r="M14" s="48">
+        <v>30</v>
+      </c>
+      <c r="N14" s="48">
+        <v>31</v>
+      </c>
+      <c r="O14" s="48">
+        <v>32</v>
+      </c>
+      <c r="P14" s="48">
+        <v>33</v>
+      </c>
+      <c r="Q14" s="48">
+        <v>34</v>
+      </c>
+      <c r="R14" s="48">
+        <v>35</v>
+      </c>
+      <c r="S14" s="48">
+        <v>36</v>
+      </c>
+      <c r="T14" s="48">
+        <v>37</v>
+      </c>
+      <c r="U14" s="48">
+        <v>38</v>
+      </c>
+      <c r="V14" s="48">
+        <v>39</v>
+      </c>
+      <c r="W14" s="48">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="C15" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="48"/>
+      <c r="O15" s="48"/>
+      <c r="P15" s="48"/>
+      <c r="Q15" s="48"/>
+      <c r="R15" s="48"/>
+      <c r="S15" s="48"/>
+      <c r="T15" s="48"/>
+      <c r="U15" s="48"/>
+      <c r="V15" s="48"/>
+      <c r="W15" s="48"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="C16" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="D16" s="48">
+        <v>41</v>
+      </c>
+      <c r="E16" s="48">
+        <v>42</v>
+      </c>
+      <c r="F16" s="48">
+        <v>43</v>
+      </c>
+      <c r="G16" s="48">
+        <v>44</v>
+      </c>
+      <c r="H16" s="48">
+        <v>45</v>
+      </c>
+      <c r="I16" s="48">
+        <v>46</v>
+      </c>
+      <c r="J16" s="48">
+        <v>47</v>
+      </c>
+      <c r="K16" s="48">
+        <v>48</v>
+      </c>
+      <c r="L16" s="48">
+        <v>49</v>
+      </c>
+      <c r="M16" s="48">
+        <v>50</v>
+      </c>
+      <c r="N16" s="48">
+        <v>51</v>
+      </c>
+      <c r="O16" s="48">
+        <v>52</v>
+      </c>
+      <c r="P16" s="48">
+        <v>53</v>
+      </c>
+      <c r="Q16" s="48">
+        <v>54</v>
+      </c>
+      <c r="R16" s="48">
+        <v>55</v>
+      </c>
+      <c r="S16" s="48">
+        <v>56</v>
+      </c>
+      <c r="T16" s="48">
+        <v>57</v>
+      </c>
+      <c r="U16" s="48">
+        <v>58</v>
+      </c>
+      <c r="V16" s="48">
+        <v>59</v>
+      </c>
+      <c r="W16" s="48">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="C17" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="48"/>
+      <c r="O17" s="48"/>
+      <c r="P17" s="48"/>
+      <c r="Q17" s="48"/>
+      <c r="R17" s="48"/>
+      <c r="S17" s="48"/>
+      <c r="T17" s="48"/>
+      <c r="U17" s="48"/>
+      <c r="V17" s="48"/>
+      <c r="W17" s="48"/>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="48">
+        <v>1</v>
+      </c>
+      <c r="F20" s="48">
+        <v>2</v>
+      </c>
+      <c r="G20" s="48">
+        <v>3</v>
+      </c>
+      <c r="H20" s="48">
+        <v>4</v>
+      </c>
+      <c r="I20" s="48">
+        <v>5</v>
+      </c>
+      <c r="J20" s="48">
+        <v>6</v>
+      </c>
+      <c r="K20" s="48">
+        <v>7</v>
+      </c>
+      <c r="L20" s="48">
+        <v>8</v>
+      </c>
+      <c r="M20" s="48">
+        <v>9</v>
+      </c>
+      <c r="N20" s="48">
+        <v>10</v>
+      </c>
+      <c r="O20" s="48">
+        <v>11</v>
+      </c>
+      <c r="P20" s="48">
+        <v>12</v>
+      </c>
+      <c r="Q20" s="48">
+        <v>13</v>
+      </c>
+      <c r="R20" s="48">
+        <v>14</v>
+      </c>
+      <c r="S20" s="48">
+        <v>15</v>
+      </c>
+      <c r="T20" s="48">
+        <v>16</v>
+      </c>
+      <c r="U20" s="48">
+        <v>17</v>
+      </c>
+      <c r="V20" s="48">
+        <v>18</v>
+      </c>
+      <c r="W20" s="48">
+        <v>19</v>
+      </c>
+      <c r="X20" s="48">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="C21" s="52"/>
+      <c r="D21" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="48"/>
+      <c r="P21" s="48"/>
+      <c r="Q21" s="48"/>
+      <c r="R21" s="48"/>
+      <c r="S21" s="48"/>
+      <c r="T21" s="48"/>
+      <c r="U21" s="48"/>
+      <c r="V21" s="48"/>
+      <c r="W21" s="48"/>
+      <c r="X21" s="48"/>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="C22" s="55" t="s">
+        <v>124</v>
+      </c>
+      <c r="D22" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="48">
+        <v>21</v>
+      </c>
+      <c r="F22" s="48">
+        <v>22</v>
+      </c>
+      <c r="G22" s="48">
+        <v>23</v>
+      </c>
+      <c r="H22" s="48">
+        <v>24</v>
+      </c>
+      <c r="I22" s="48">
+        <v>25</v>
+      </c>
+      <c r="J22" s="48">
+        <v>26</v>
+      </c>
+      <c r="K22" s="48">
+        <v>27</v>
+      </c>
+      <c r="L22" s="48">
+        <v>28</v>
+      </c>
+      <c r="M22" s="48">
+        <v>29</v>
+      </c>
+      <c r="N22" s="48">
+        <v>30</v>
+      </c>
+      <c r="O22" s="48">
+        <v>31</v>
+      </c>
+      <c r="P22" s="48">
+        <v>32</v>
+      </c>
+      <c r="Q22" s="48">
+        <v>33</v>
+      </c>
+      <c r="R22" s="48">
+        <v>34</v>
+      </c>
+      <c r="S22" s="48">
+        <v>35</v>
+      </c>
+      <c r="T22" s="48">
+        <v>36</v>
+      </c>
+      <c r="U22" s="48">
+        <v>37</v>
+      </c>
+      <c r="V22" s="48">
+        <v>38</v>
+      </c>
+      <c r="W22" s="48">
+        <v>39</v>
+      </c>
+      <c r="X22" s="48">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="C23" s="55"/>
+      <c r="D23" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="48"/>
+      <c r="O23" s="48"/>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="48"/>
+      <c r="R23" s="48"/>
+      <c r="S23" s="48"/>
+      <c r="T23" s="48"/>
+      <c r="U23" s="48"/>
+      <c r="V23" s="48"/>
+      <c r="W23" s="48"/>
+      <c r="X23" s="48"/>
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="C24" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="D24" s="54" t="s">
+        <v>126</v>
+      </c>
+      <c r="E24" s="48">
+        <v>41</v>
+      </c>
+      <c r="F24" s="48">
+        <v>42</v>
+      </c>
+      <c r="G24" s="48">
+        <v>43</v>
+      </c>
+      <c r="H24" s="48">
+        <v>44</v>
+      </c>
+      <c r="I24" s="48">
+        <v>45</v>
+      </c>
+      <c r="J24" s="48">
+        <v>46</v>
+      </c>
+      <c r="K24" s="48">
+        <v>47</v>
+      </c>
+      <c r="L24" s="48">
+        <v>48</v>
+      </c>
+      <c r="M24" s="48">
+        <v>49</v>
+      </c>
+      <c r="N24" s="48">
+        <v>50</v>
+      </c>
+      <c r="O24" s="48">
+        <v>51</v>
+      </c>
+      <c r="P24" s="48">
+        <v>52</v>
+      </c>
+      <c r="Q24" s="48">
+        <v>53</v>
+      </c>
+      <c r="R24" s="48">
+        <v>54</v>
+      </c>
+      <c r="S24" s="48">
+        <v>55</v>
+      </c>
+      <c r="T24" s="48">
+        <v>56</v>
+      </c>
+      <c r="U24" s="48">
+        <v>57</v>
+      </c>
+      <c r="V24" s="48">
+        <v>58</v>
+      </c>
+      <c r="W24" s="48">
+        <v>59</v>
+      </c>
+      <c r="X24" s="48">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="C25" s="55"/>
+      <c r="D25" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="48"/>
+      <c r="N25" s="48"/>
+      <c r="O25" s="48"/>
+      <c r="P25" s="48"/>
+      <c r="Q25" s="48"/>
+      <c r="R25" s="48"/>
+      <c r="S25" s="48"/>
+      <c r="T25" s="48"/>
+      <c r="U25" s="48"/>
+      <c r="V25" s="48"/>
+      <c r="W25" s="48"/>
+      <c r="X25" s="48"/>
+    </row>
+    <row r="29" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
+        <v>130</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D29" s="6"/>
+    </row>
+    <row r="30" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="C30" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D30" s="59"/>
+    </row>
+    <row r="31" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="C31" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="6"/>
+    </row>
+    <row r="32" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="C32" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="57"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B33" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33" s="6"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B34" s="61"/>
+      <c r="C34" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34" s="6"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B35" s="62"/>
+      <c r="C35" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2076,10 +3125,158 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="14.375" customWidth="1"/>
+    <col min="4" max="4" width="16.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C7" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C12" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C13" s="46"/>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C14" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C18" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C19" s="13"/>
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C20" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" s="6"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C24" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C25" s="13"/>
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C26" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="6"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C27" s="13"/>
+      <c r="D27" s="6"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C28" s="13"/>
+      <c r="D28" s="6"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C29" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D29" s="6"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C30" s="13"/>
+      <c r="D30" s="6"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C31" s="13"/>
+      <c r="D31" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C12:C13"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2131,89 +3328,95 @@
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="39" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C11" s="35"/>
+      <c r="C11" s="39"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C14" s="1" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C12" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D15" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D16" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C20" s="1" t="s">
+      <c r="E18" s="3"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D21" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D23" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B25" s="1" t="s">
+      <c r="E23" s="3"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C26" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="D26" s="3"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C27" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="11"/>
+        <v>20</v>
+      </c>
+      <c r="D27" s="3"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="11"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C29" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="12"/>
+      <c r="D29" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2224,7 +3427,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
@@ -2355,13 +3558,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="8" width="13.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
@@ -2391,24 +3599,45 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B9" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B10" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="11"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B13" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="6"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B9" s="10" t="s">
+      <c r="C13" s="6"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B14" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="6"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B10" s="10" t="s">
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B15" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="11"/>
+      <c r="C15" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2416,7 +3645,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F45"/>
   <sheetViews>
@@ -2455,7 +3684,7 @@
       <c r="D6" s="21"/>
     </row>
     <row r="7" spans="1:4" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="40" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="22" t="s">
@@ -2465,7 +3694,7 @@
       <c r="D7" s="24"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="37"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="18" t="s">
         <v>38</v>
       </c>
@@ -2488,7 +3717,7 @@
       <c r="C13" s="21"/>
     </row>
     <row r="14" spans="1:4" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="40" t="s">
         <v>36</v>
       </c>
       <c r="B14" s="22" t="s">
@@ -2497,7 +3726,7 @@
       <c r="C14" s="24"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="37"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="18" t="s">
         <v>38</v>
       </c>
@@ -2519,7 +3748,7 @@
       <c r="C19" s="21"/>
     </row>
     <row r="20" spans="1:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="36" t="s">
+      <c r="A20" s="40" t="s">
         <v>36</v>
       </c>
       <c r="B20" s="22" t="s">
@@ -2528,7 +3757,7 @@
       <c r="C20" s="24"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="37"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="18" t="s">
         <v>38</v>
       </c>
@@ -2556,7 +3785,7 @@
       <c r="F25" s="21"/>
     </row>
     <row r="26" spans="1:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="36" t="s">
+      <c r="A26" s="40" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="22" t="s">
@@ -2568,7 +3797,7 @@
       <c r="F26" s="24"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="37"/>
+      <c r="A27" s="41"/>
       <c r="B27" s="18" t="s">
         <v>38</v>
       </c>
@@ -2615,7 +3844,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="36" t="s">
+      <c r="A32" s="40" t="s">
         <v>36</v>
       </c>
       <c r="B32" s="22" t="s">
@@ -2629,7 +3858,7 @@
       <c r="F32" s="24"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A33" s="37"/>
+      <c r="A33" s="41"/>
       <c r="B33" s="18" t="s">
         <v>38</v>
       </c>
@@ -2662,7 +3891,7 @@
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="36" t="s">
+      <c r="A38" s="40" t="s">
         <v>36</v>
       </c>
       <c r="B38" s="22" t="s">
@@ -2674,7 +3903,7 @@
       <c r="F38" s="24"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A39" s="37"/>
+      <c r="A39" s="41"/>
       <c r="B39" s="18" t="s">
         <v>38</v>
       </c>
@@ -2705,7 +3934,7 @@
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="36" t="s">
+      <c r="A44" s="40" t="s">
         <v>36</v>
       </c>
       <c r="B44" s="22" t="s">
@@ -2717,7 +3946,7 @@
       <c r="F44" s="24"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A45" s="37"/>
+      <c r="A45" s="41"/>
       <c r="B45" s="18" t="s">
         <v>38</v>
       </c>
@@ -2741,7 +3970,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G39"/>
   <sheetViews>
@@ -2787,7 +4016,7 @@
       <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="41" t="s">
         <v>51</v>
       </c>
       <c r="B7" s="25" t="s">
@@ -2796,7 +4025,7 @@
       <c r="C7" s="26"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="37"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="25" t="s">
         <v>54</v>
       </c>
@@ -2856,7 +4085,7 @@
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="41" t="s">
         <v>51</v>
       </c>
       <c r="B19" s="25" t="s">
@@ -2869,7 +4098,7 @@
       <c r="G19" s="26"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="37"/>
+      <c r="A20" s="41"/>
       <c r="B20" s="25" t="s">
         <v>60</v>
       </c>
@@ -2912,7 +4141,7 @@
       <c r="E25" s="6"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="37" t="s">
+      <c r="A26" s="41" t="s">
         <v>51</v>
       </c>
       <c r="B26" s="25" t="s">
@@ -2923,7 +4152,7 @@
       <c r="E26" s="26"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="37"/>
+      <c r="A27" s="41"/>
       <c r="B27" s="25" t="s">
         <v>60</v>
       </c>
@@ -2990,7 +4219,7 @@
       <c r="C37" s="6"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A38" s="37" t="s">
+      <c r="A38" s="41" t="s">
         <v>51</v>
       </c>
       <c r="B38" s="25" t="s">
@@ -2999,7 +4228,7 @@
       <c r="C38" s="26"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A39" s="37"/>
+      <c r="A39" s="41"/>
       <c r="B39" s="25" t="s">
         <v>53</v>
       </c>
@@ -3031,7 +4260,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -3108,128 +4337,4 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="14.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B5" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B6" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B9" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="D10" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="D11" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B15" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B16" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B17" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B18" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C21" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C23" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C24" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C25" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/test/data/anno_VerticalRecords_template.xlsx
+++ b/src/test/data/anno_VerticalRecords_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10140" yWindow="3225" windowWidth="14805" windowHeight="8010" firstSheet="8" activeTab="12"/>
+    <workbookView xWindow="10140" yWindow="3225" windowWidth="14805" windowHeight="8010" firstSheet="10" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="開始位置の指定" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,10 @@
     <sheet name="正規表現で一致" sheetId="11" r:id="rId11"/>
     <sheet name="データの開始位置" sheetId="10" r:id="rId12"/>
     <sheet name="ネストした表" sheetId="13" r:id="rId13"/>
+    <sheet name="数式を指定" sheetId="14" r:id="rId14"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId14"/>
+    <externalReference r:id="rId15"/>
   </externalReferences>
   <definedNames>
     <definedName name="機能名" localSheetId="8">'[1]オプション設定（入力規則）'!$C$10</definedName>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="138">
   <si>
     <t>○×一覧</t>
     <rPh sb="2" eb="4">
@@ -976,6 +977,41 @@
   </si>
   <si>
     <t>クラス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アノテーション「@VerticalRecords」のテスタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>成績一覧</t>
+    <rPh sb="0" eb="2">
+      <t>セイセキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出席可能数</t>
+    <rPh sb="0" eb="2">
+      <t>シュッセキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>スウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1219,7 +1255,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1281,6 +1317,31 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1300,36 +1361,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1339,6 +1370,16 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -1376,6 +1417,7 @@
       <sheetName val="データの開始位置"/>
       <sheetName val="正規表現で一致"/>
       <sheetName val="ネストした表"/>
+      <sheetName val="数式を指定"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -1412,6 +1454,7 @@
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2216,21 +2259,21 @@
       <c r="C12" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D12" s="45" t="s">
+      <c r="D12" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="E12" s="45"/>
+      <c r="E12" s="58"/>
       <c r="F12" s="26"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="D13" s="45" t="s">
+      <c r="D13" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="45"/>
+      <c r="E13" s="58"/>
       <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="D14" s="42" t="s">
+      <c r="D14" s="55" t="s">
         <v>90</v>
       </c>
       <c r="E14" s="29" t="s">
@@ -2239,14 +2282,14 @@
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="D15" s="43"/>
+      <c r="D15" s="56"/>
       <c r="E15" s="29" t="s">
         <v>89</v>
       </c>
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="D16" s="44"/>
+      <c r="D16" s="57"/>
       <c r="E16" s="29" t="s">
         <v>11</v>
       </c>
@@ -2258,21 +2301,21 @@
       </c>
     </row>
     <row r="21" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="E21" s="45" t="s">
+      <c r="E21" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="F21" s="45"/>
+      <c r="F21" s="58"/>
       <c r="G21" s="26"/>
     </row>
     <row r="22" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="E22" s="45" t="s">
+      <c r="E22" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="45"/>
+      <c r="F22" s="58"/>
       <c r="G22" s="6"/>
     </row>
     <row r="23" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="E23" s="42" t="s">
+      <c r="E23" s="55" t="s">
         <v>90</v>
       </c>
       <c r="F23" s="29" t="s">
@@ -2281,14 +2324,14 @@
       <c r="G23" s="6"/>
     </row>
     <row r="24" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="E24" s="43"/>
+      <c r="E24" s="56"/>
       <c r="F24" s="29" t="s">
         <v>89</v>
       </c>
       <c r="G24" s="6"/>
     </row>
     <row r="25" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="E25" s="44"/>
+      <c r="E25" s="57"/>
       <c r="F25" s="29" t="s">
         <v>11</v>
       </c>
@@ -2312,7 +2355,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E20" sqref="E20:X25"/>
     </sheetView>
   </sheetViews>
@@ -2331,598 +2374,598 @@
       <c r="B4" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="D4" s="48"/>
+      <c r="D4" s="41"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="48"/>
+      <c r="D5" s="41"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="D6" s="48"/>
+      <c r="D6" s="41"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="D7" s="48"/>
+      <c r="D7" s="41"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="D8" s="48"/>
+      <c r="D8" s="41"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="48"/>
+      <c r="D9" s="41"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>127</v>
       </c>
-      <c r="C12" s="50" t="s">
+      <c r="C12" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="D12" s="48">
+      <c r="D12" s="41">
         <v>1</v>
       </c>
-      <c r="E12" s="48">
+      <c r="E12" s="41">
         <v>2</v>
       </c>
-      <c r="F12" s="48">
+      <c r="F12" s="41">
         <v>3</v>
       </c>
-      <c r="G12" s="48">
+      <c r="G12" s="41">
         <v>4</v>
       </c>
-      <c r="H12" s="48">
+      <c r="H12" s="41">
         <v>5</v>
       </c>
-      <c r="I12" s="48">
+      <c r="I12" s="41">
         <v>6</v>
       </c>
-      <c r="J12" s="48">
+      <c r="J12" s="41">
         <v>7</v>
       </c>
-      <c r="K12" s="48">
+      <c r="K12" s="41">
         <v>8</v>
       </c>
-      <c r="L12" s="48">
+      <c r="L12" s="41">
         <v>9</v>
       </c>
-      <c r="M12" s="48">
+      <c r="M12" s="41">
         <v>10</v>
       </c>
-      <c r="N12" s="48">
+      <c r="N12" s="41">
         <v>11</v>
       </c>
-      <c r="O12" s="48">
+      <c r="O12" s="41">
         <v>12</v>
       </c>
-      <c r="P12" s="48">
+      <c r="P12" s="41">
         <v>13</v>
       </c>
-      <c r="Q12" s="48">
+      <c r="Q12" s="41">
         <v>14</v>
       </c>
-      <c r="R12" s="48">
+      <c r="R12" s="41">
         <v>15</v>
       </c>
-      <c r="S12" s="48">
+      <c r="S12" s="41">
         <v>16</v>
       </c>
-      <c r="T12" s="48">
+      <c r="T12" s="41">
         <v>17</v>
       </c>
-      <c r="U12" s="48">
+      <c r="U12" s="41">
         <v>18</v>
       </c>
-      <c r="V12" s="48">
+      <c r="V12" s="41">
         <v>19</v>
       </c>
-      <c r="W12" s="48">
+      <c r="W12" s="41">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="48"/>
-      <c r="S13" s="48"/>
-      <c r="T13" s="48"/>
-      <c r="U13" s="48"/>
-      <c r="V13" s="48"/>
-      <c r="W13" s="48"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="41"/>
+      <c r="S13" s="41"/>
+      <c r="T13" s="41"/>
+      <c r="U13" s="41"/>
+      <c r="V13" s="41"/>
+      <c r="W13" s="41"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="D14" s="48">
+      <c r="D14" s="41">
         <v>21</v>
       </c>
-      <c r="E14" s="48">
+      <c r="E14" s="41">
         <v>22</v>
       </c>
-      <c r="F14" s="48">
+      <c r="F14" s="41">
         <v>23</v>
       </c>
-      <c r="G14" s="48">
+      <c r="G14" s="41">
         <v>24</v>
       </c>
-      <c r="H14" s="48">
+      <c r="H14" s="41">
         <v>25</v>
       </c>
-      <c r="I14" s="48">
+      <c r="I14" s="41">
         <v>26</v>
       </c>
-      <c r="J14" s="48">
+      <c r="J14" s="41">
         <v>27</v>
       </c>
-      <c r="K14" s="48">
+      <c r="K14" s="41">
         <v>28</v>
       </c>
-      <c r="L14" s="48">
+      <c r="L14" s="41">
         <v>29</v>
       </c>
-      <c r="M14" s="48">
+      <c r="M14" s="41">
         <v>30</v>
       </c>
-      <c r="N14" s="48">
+      <c r="N14" s="41">
         <v>31</v>
       </c>
-      <c r="O14" s="48">
+      <c r="O14" s="41">
         <v>32</v>
       </c>
-      <c r="P14" s="48">
+      <c r="P14" s="41">
         <v>33</v>
       </c>
-      <c r="Q14" s="48">
+      <c r="Q14" s="41">
         <v>34</v>
       </c>
-      <c r="R14" s="48">
+      <c r="R14" s="41">
         <v>35</v>
       </c>
-      <c r="S14" s="48">
+      <c r="S14" s="41">
         <v>36</v>
       </c>
-      <c r="T14" s="48">
+      <c r="T14" s="41">
         <v>37</v>
       </c>
-      <c r="U14" s="48">
+      <c r="U14" s="41">
         <v>38</v>
       </c>
-      <c r="V14" s="48">
+      <c r="V14" s="41">
         <v>39</v>
       </c>
-      <c r="W14" s="48">
+      <c r="W14" s="41">
         <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="C15" s="51" t="s">
+      <c r="C15" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="48"/>
-      <c r="O15" s="48"/>
-      <c r="P15" s="48"/>
-      <c r="Q15" s="48"/>
-      <c r="R15" s="48"/>
-      <c r="S15" s="48"/>
-      <c r="T15" s="48"/>
-      <c r="U15" s="48"/>
-      <c r="V15" s="48"/>
-      <c r="W15" s="48"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="41"/>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="41"/>
+      <c r="R15" s="41"/>
+      <c r="S15" s="41"/>
+      <c r="T15" s="41"/>
+      <c r="U15" s="41"/>
+      <c r="V15" s="41"/>
+      <c r="W15" s="41"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="C16" s="51" t="s">
+      <c r="C16" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="D16" s="48">
+      <c r="D16" s="41">
         <v>41</v>
       </c>
-      <c r="E16" s="48">
+      <c r="E16" s="41">
         <v>42</v>
       </c>
-      <c r="F16" s="48">
+      <c r="F16" s="41">
         <v>43</v>
       </c>
-      <c r="G16" s="48">
+      <c r="G16" s="41">
         <v>44</v>
       </c>
-      <c r="H16" s="48">
+      <c r="H16" s="41">
         <v>45</v>
       </c>
-      <c r="I16" s="48">
+      <c r="I16" s="41">
         <v>46</v>
       </c>
-      <c r="J16" s="48">
+      <c r="J16" s="41">
         <v>47</v>
       </c>
-      <c r="K16" s="48">
+      <c r="K16" s="41">
         <v>48</v>
       </c>
-      <c r="L16" s="48">
+      <c r="L16" s="41">
         <v>49</v>
       </c>
-      <c r="M16" s="48">
+      <c r="M16" s="41">
         <v>50</v>
       </c>
-      <c r="N16" s="48">
+      <c r="N16" s="41">
         <v>51</v>
       </c>
-      <c r="O16" s="48">
+      <c r="O16" s="41">
         <v>52</v>
       </c>
-      <c r="P16" s="48">
+      <c r="P16" s="41">
         <v>53</v>
       </c>
-      <c r="Q16" s="48">
+      <c r="Q16" s="41">
         <v>54</v>
       </c>
-      <c r="R16" s="48">
+      <c r="R16" s="41">
         <v>55</v>
       </c>
-      <c r="S16" s="48">
+      <c r="S16" s="41">
         <v>56</v>
       </c>
-      <c r="T16" s="48">
+      <c r="T16" s="41">
         <v>57</v>
       </c>
-      <c r="U16" s="48">
+      <c r="U16" s="41">
         <v>58</v>
       </c>
-      <c r="V16" s="48">
+      <c r="V16" s="41">
         <v>59</v>
       </c>
-      <c r="W16" s="48">
+      <c r="W16" s="41">
         <v>60</v>
       </c>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="C17" s="51" t="s">
+      <c r="C17" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="48"/>
-      <c r="P17" s="48"/>
-      <c r="Q17" s="48"/>
-      <c r="R17" s="48"/>
-      <c r="S17" s="48"/>
-      <c r="T17" s="48"/>
-      <c r="U17" s="48"/>
-      <c r="V17" s="48"/>
-      <c r="W17" s="48"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="41"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="41"/>
+      <c r="R17" s="41"/>
+      <c r="S17" s="41"/>
+      <c r="T17" s="41"/>
+      <c r="U17" s="41"/>
+      <c r="V17" s="41"/>
+      <c r="W17" s="41"/>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>128</v>
       </c>
-      <c r="C20" s="52" t="s">
+      <c r="C20" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="D20" s="53" t="s">
+      <c r="D20" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="48">
+      <c r="E20" s="41">
         <v>1</v>
       </c>
-      <c r="F20" s="48">
+      <c r="F20" s="41">
         <v>2</v>
       </c>
-      <c r="G20" s="48">
+      <c r="G20" s="41">
         <v>3</v>
       </c>
-      <c r="H20" s="48">
+      <c r="H20" s="41">
         <v>4</v>
       </c>
-      <c r="I20" s="48">
+      <c r="I20" s="41">
         <v>5</v>
       </c>
-      <c r="J20" s="48">
+      <c r="J20" s="41">
         <v>6</v>
       </c>
-      <c r="K20" s="48">
+      <c r="K20" s="41">
         <v>7</v>
       </c>
-      <c r="L20" s="48">
+      <c r="L20" s="41">
         <v>8</v>
       </c>
-      <c r="M20" s="48">
+      <c r="M20" s="41">
         <v>9</v>
       </c>
-      <c r="N20" s="48">
+      <c r="N20" s="41">
         <v>10</v>
       </c>
-      <c r="O20" s="48">
+      <c r="O20" s="41">
         <v>11</v>
       </c>
-      <c r="P20" s="48">
+      <c r="P20" s="41">
         <v>12</v>
       </c>
-      <c r="Q20" s="48">
+      <c r="Q20" s="41">
         <v>13</v>
       </c>
-      <c r="R20" s="48">
+      <c r="R20" s="41">
         <v>14</v>
       </c>
-      <c r="S20" s="48">
+      <c r="S20" s="41">
         <v>15</v>
       </c>
-      <c r="T20" s="48">
+      <c r="T20" s="41">
         <v>16</v>
       </c>
-      <c r="U20" s="48">
+      <c r="U20" s="41">
         <v>17</v>
       </c>
-      <c r="V20" s="48">
+      <c r="V20" s="41">
         <v>18</v>
       </c>
-      <c r="W20" s="48">
+      <c r="W20" s="41">
         <v>19</v>
       </c>
-      <c r="X20" s="48">
+      <c r="X20" s="41">
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="C21" s="52"/>
-      <c r="D21" s="54" t="s">
+      <c r="C21" s="63"/>
+      <c r="D21" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="48"/>
-      <c r="P21" s="48"/>
-      <c r="Q21" s="48"/>
-      <c r="R21" s="48"/>
-      <c r="S21" s="48"/>
-      <c r="T21" s="48"/>
-      <c r="U21" s="48"/>
-      <c r="V21" s="48"/>
-      <c r="W21" s="48"/>
-      <c r="X21" s="48"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="41"/>
+      <c r="S21" s="41"/>
+      <c r="T21" s="41"/>
+      <c r="U21" s="41"/>
+      <c r="V21" s="41"/>
+      <c r="W21" s="41"/>
+      <c r="X21" s="41"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="C22" s="55" t="s">
+      <c r="C22" s="62" t="s">
         <v>124</v>
       </c>
-      <c r="D22" s="53" t="s">
+      <c r="D22" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="48">
+      <c r="E22" s="41">
         <v>21</v>
       </c>
-      <c r="F22" s="48">
+      <c r="F22" s="41">
         <v>22</v>
       </c>
-      <c r="G22" s="48">
+      <c r="G22" s="41">
         <v>23</v>
       </c>
-      <c r="H22" s="48">
+      <c r="H22" s="41">
         <v>24</v>
       </c>
-      <c r="I22" s="48">
+      <c r="I22" s="41">
         <v>25</v>
       </c>
-      <c r="J22" s="48">
+      <c r="J22" s="41">
         <v>26</v>
       </c>
-      <c r="K22" s="48">
+      <c r="K22" s="41">
         <v>27</v>
       </c>
-      <c r="L22" s="48">
+      <c r="L22" s="41">
         <v>28</v>
       </c>
-      <c r="M22" s="48">
+      <c r="M22" s="41">
         <v>29</v>
       </c>
-      <c r="N22" s="48">
+      <c r="N22" s="41">
         <v>30</v>
       </c>
-      <c r="O22" s="48">
+      <c r="O22" s="41">
         <v>31</v>
       </c>
-      <c r="P22" s="48">
+      <c r="P22" s="41">
         <v>32</v>
       </c>
-      <c r="Q22" s="48">
+      <c r="Q22" s="41">
         <v>33</v>
       </c>
-      <c r="R22" s="48">
+      <c r="R22" s="41">
         <v>34</v>
       </c>
-      <c r="S22" s="48">
+      <c r="S22" s="41">
         <v>35</v>
       </c>
-      <c r="T22" s="48">
+      <c r="T22" s="41">
         <v>36</v>
       </c>
-      <c r="U22" s="48">
+      <c r="U22" s="41">
         <v>37</v>
       </c>
-      <c r="V22" s="48">
+      <c r="V22" s="41">
         <v>38</v>
       </c>
-      <c r="W22" s="48">
+      <c r="W22" s="41">
         <v>39</v>
       </c>
-      <c r="X22" s="48">
+      <c r="X22" s="41">
         <v>40</v>
       </c>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="C23" s="55"/>
-      <c r="D23" s="54" t="s">
+      <c r="C23" s="62"/>
+      <c r="D23" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="48"/>
-      <c r="O23" s="48"/>
-      <c r="P23" s="48"/>
-      <c r="Q23" s="48"/>
-      <c r="R23" s="48"/>
-      <c r="S23" s="48"/>
-      <c r="T23" s="48"/>
-      <c r="U23" s="48"/>
-      <c r="V23" s="48"/>
-      <c r="W23" s="48"/>
-      <c r="X23" s="48"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="41"/>
+      <c r="R23" s="41"/>
+      <c r="S23" s="41"/>
+      <c r="T23" s="41"/>
+      <c r="U23" s="41"/>
+      <c r="V23" s="41"/>
+      <c r="W23" s="41"/>
+      <c r="X23" s="41"/>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="C24" s="55" t="s">
+      <c r="C24" s="62" t="s">
         <v>129</v>
       </c>
-      <c r="D24" s="54" t="s">
+      <c r="D24" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="E24" s="48">
+      <c r="E24" s="41">
         <v>41</v>
       </c>
-      <c r="F24" s="48">
+      <c r="F24" s="41">
         <v>42</v>
       </c>
-      <c r="G24" s="48">
+      <c r="G24" s="41">
         <v>43</v>
       </c>
-      <c r="H24" s="48">
+      <c r="H24" s="41">
         <v>44</v>
       </c>
-      <c r="I24" s="48">
+      <c r="I24" s="41">
         <v>45</v>
       </c>
-      <c r="J24" s="48">
+      <c r="J24" s="41">
         <v>46</v>
       </c>
-      <c r="K24" s="48">
+      <c r="K24" s="41">
         <v>47</v>
       </c>
-      <c r="L24" s="48">
+      <c r="L24" s="41">
         <v>48</v>
       </c>
-      <c r="M24" s="48">
+      <c r="M24" s="41">
         <v>49</v>
       </c>
-      <c r="N24" s="48">
+      <c r="N24" s="41">
         <v>50</v>
       </c>
-      <c r="O24" s="48">
+      <c r="O24" s="41">
         <v>51</v>
       </c>
-      <c r="P24" s="48">
+      <c r="P24" s="41">
         <v>52</v>
       </c>
-      <c r="Q24" s="48">
+      <c r="Q24" s="41">
         <v>53</v>
       </c>
-      <c r="R24" s="48">
+      <c r="R24" s="41">
         <v>54</v>
       </c>
-      <c r="S24" s="48">
+      <c r="S24" s="41">
         <v>55</v>
       </c>
-      <c r="T24" s="48">
+      <c r="T24" s="41">
         <v>56</v>
       </c>
-      <c r="U24" s="48">
+      <c r="U24" s="41">
         <v>57</v>
       </c>
-      <c r="V24" s="48">
+      <c r="V24" s="41">
         <v>58</v>
       </c>
-      <c r="W24" s="48">
+      <c r="W24" s="41">
         <v>59</v>
       </c>
-      <c r="X24" s="48">
+      <c r="X24" s="41">
         <v>60</v>
       </c>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="C25" s="55"/>
-      <c r="D25" s="54" t="s">
+      <c r="C25" s="62"/>
+      <c r="D25" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="48"/>
-      <c r="N25" s="48"/>
-      <c r="O25" s="48"/>
-      <c r="P25" s="48"/>
-      <c r="Q25" s="48"/>
-      <c r="R25" s="48"/>
-      <c r="S25" s="48"/>
-      <c r="T25" s="48"/>
-      <c r="U25" s="48"/>
-      <c r="V25" s="48"/>
-      <c r="W25" s="48"/>
-      <c r="X25" s="48"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="41"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="41"/>
+      <c r="R25" s="41"/>
+      <c r="S25" s="41"/>
+      <c r="T25" s="41"/>
+      <c r="U25" s="41"/>
+      <c r="V25" s="41"/>
+      <c r="W25" s="41"/>
+      <c r="X25" s="41"/>
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
@@ -2937,7 +2980,7 @@
       <c r="C30" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="D30" s="59"/>
+      <c r="D30" s="50"/>
     </row>
     <row r="31" spans="2:24" x14ac:dyDescent="0.15">
       <c r="C31" s="13" t="s">
@@ -2946,30 +2989,30 @@
       <c r="D31" s="6"/>
     </row>
     <row r="32" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="C32" s="56" t="s">
+      <c r="C32" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="D32" s="57"/>
+      <c r="D32" s="48"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B33" s="60" t="s">
+      <c r="B33" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="C33" s="58" t="s">
+      <c r="C33" s="49" t="s">
         <v>89</v>
       </c>
       <c r="D33" s="6"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B34" s="61"/>
-      <c r="C34" s="58" t="s">
+      <c r="B34" s="60"/>
+      <c r="C34" s="49" t="s">
         <v>88</v>
       </c>
       <c r="D34" s="6"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B35" s="62"/>
-      <c r="C35" s="58" t="s">
+      <c r="B35" s="61"/>
+      <c r="C35" s="49" t="s">
         <v>11</v>
       </c>
       <c r="D35" s="30"/>
@@ -2980,6 +3023,121 @@
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C22:C23"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="4" width="12.875" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="58" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" s="58"/>
+      <c r="E4" s="26"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C5" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="58"/>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C6" s="64" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C7" s="64"/>
+      <c r="D7" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C8" s="64"/>
+      <c r="D8" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="30"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C12" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C13" s="65">
+        <v>42095</v>
+      </c>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C14" s="65">
+        <v>42096</v>
+      </c>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C15" s="65">
+        <v>42097</v>
+      </c>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C16" s="65" t="s">
+        <v>137</v>
+      </c>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C17" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:C8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3179,13 +3337,13 @@
       <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C12" s="46" t="s">
+      <c r="C12" s="51" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C13" s="46"/>
+      <c r="C13" s="51"/>
       <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
@@ -3328,13 +3486,13 @@
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="52" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C11" s="39"/>
+      <c r="C11" s="52"/>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -3684,7 +3842,7 @@
       <c r="D6" s="21"/>
     </row>
     <row r="7" spans="1:4" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="53" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="22" t="s">
@@ -3694,7 +3852,7 @@
       <c r="D7" s="24"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="41"/>
+      <c r="A8" s="54"/>
       <c r="B8" s="18" t="s">
         <v>38</v>
       </c>
@@ -3717,7 +3875,7 @@
       <c r="C13" s="21"/>
     </row>
     <row r="14" spans="1:4" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="53" t="s">
         <v>36</v>
       </c>
       <c r="B14" s="22" t="s">
@@ -3726,7 +3884,7 @@
       <c r="C14" s="24"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="41"/>
+      <c r="A15" s="54"/>
       <c r="B15" s="18" t="s">
         <v>38</v>
       </c>
@@ -3748,7 +3906,7 @@
       <c r="C19" s="21"/>
     </row>
     <row r="20" spans="1:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="53" t="s">
         <v>36</v>
       </c>
       <c r="B20" s="22" t="s">
@@ -3757,7 +3915,7 @@
       <c r="C20" s="24"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="41"/>
+      <c r="A21" s="54"/>
       <c r="B21" s="18" t="s">
         <v>38</v>
       </c>
@@ -3785,7 +3943,7 @@
       <c r="F25" s="21"/>
     </row>
     <row r="26" spans="1:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="53" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="22" t="s">
@@ -3797,7 +3955,7 @@
       <c r="F26" s="24"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="41"/>
+      <c r="A27" s="54"/>
       <c r="B27" s="18" t="s">
         <v>38</v>
       </c>
@@ -3844,7 +4002,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="53" t="s">
         <v>36</v>
       </c>
       <c r="B32" s="22" t="s">
@@ -3858,7 +4016,7 @@
       <c r="F32" s="24"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A33" s="41"/>
+      <c r="A33" s="54"/>
       <c r="B33" s="18" t="s">
         <v>38</v>
       </c>
@@ -3891,7 +4049,7 @@
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="40" t="s">
+      <c r="A38" s="53" t="s">
         <v>36</v>
       </c>
       <c r="B38" s="22" t="s">
@@ -3903,7 +4061,7 @@
       <c r="F38" s="24"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A39" s="41"/>
+      <c r="A39" s="54"/>
       <c r="B39" s="18" t="s">
         <v>38</v>
       </c>
@@ -3934,7 +4092,7 @@
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="40" t="s">
+      <c r="A44" s="53" t="s">
         <v>36</v>
       </c>
       <c r="B44" s="22" t="s">
@@ -3946,7 +4104,7 @@
       <c r="F44" s="24"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A45" s="41"/>
+      <c r="A45" s="54"/>
       <c r="B45" s="18" t="s">
         <v>38</v>
       </c>
@@ -4016,7 +4174,7 @@
       <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="54" t="s">
         <v>51</v>
       </c>
       <c r="B7" s="25" t="s">
@@ -4025,7 +4183,7 @@
       <c r="C7" s="26"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="41"/>
+      <c r="A8" s="54"/>
       <c r="B8" s="25" t="s">
         <v>54</v>
       </c>
@@ -4085,7 +4243,7 @@
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="54" t="s">
         <v>51</v>
       </c>
       <c r="B19" s="25" t="s">
@@ -4098,7 +4256,7 @@
       <c r="G19" s="26"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="41"/>
+      <c r="A20" s="54"/>
       <c r="B20" s="25" t="s">
         <v>60</v>
       </c>
@@ -4141,7 +4299,7 @@
       <c r="E25" s="6"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="41" t="s">
+      <c r="A26" s="54" t="s">
         <v>51</v>
       </c>
       <c r="B26" s="25" t="s">
@@ -4152,7 +4310,7 @@
       <c r="E26" s="26"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="41"/>
+      <c r="A27" s="54"/>
       <c r="B27" s="25" t="s">
         <v>60</v>
       </c>
@@ -4219,7 +4377,7 @@
       <c r="C37" s="6"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A38" s="41" t="s">
+      <c r="A38" s="54" t="s">
         <v>51</v>
       </c>
       <c r="B38" s="25" t="s">
@@ -4228,7 +4386,7 @@
       <c r="C38" s="26"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A39" s="41"/>
+      <c r="A39" s="54"/>
       <c r="B39" s="25" t="s">
         <v>53</v>
       </c>

--- a/src/test/data/anno_VerticalRecords_template.xlsx
+++ b/src/test/data/anno_VerticalRecords_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10140" yWindow="3225" windowWidth="14805" windowHeight="8010" firstSheet="10" activeTab="13"/>
+    <workbookView xWindow="2925" yWindow="1890" windowWidth="14805" windowHeight="8010" firstSheet="10" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="開始位置の指定" sheetId="1" r:id="rId1"/>
@@ -21,9 +21,10 @@
     <sheet name="データの開始位置" sheetId="10" r:id="rId12"/>
     <sheet name="ネストした表" sheetId="13" r:id="rId13"/>
     <sheet name="数式を指定" sheetId="14" r:id="rId14"/>
+    <sheet name="独自の開始位置" sheetId="15" r:id="rId15"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId15"/>
+    <externalReference r:id="rId16"/>
   </externalReferences>
   <definedNames>
     <definedName name="機能名" localSheetId="8">'[1]オプション設定（入力規則）'!$C$10</definedName>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="143">
   <si>
     <t>○×一覧</t>
     <rPh sb="2" eb="4">
@@ -1012,6 +1013,29 @@
     <rPh sb="4" eb="5">
       <t>スウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アノテーション「@VerticalRecords」のテスタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アノテーション「@XlsRecordFinder」の指定</t>
+    <rPh sb="26" eb="28">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラスA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラスB</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1079,7 +1103,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1125,6 +1149,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1255,7 +1285,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1341,6 +1371,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1379,7 +1410,9 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -1418,15 +1451,18 @@
       <sheetName val="正規表現で一致"/>
       <sheetName val="ネストした表"/>
       <sheetName val="数式を指定"/>
+      <sheetName val="余分なレコードの制御と終端の判定"/>
+      <sheetName val="結合セルの補正"/>
+      <sheetName val="独自の開始位置"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
       <sheetData sheetId="7">
         <row r="30">
           <cell r="C30" t="str">
@@ -1449,12 +1485,15 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2259,21 +2298,21 @@
       <c r="C12" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D12" s="58" t="s">
+      <c r="D12" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="E12" s="58"/>
+      <c r="E12" s="59"/>
       <c r="F12" s="26"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="D13" s="58" t="s">
+      <c r="D13" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="58"/>
+      <c r="E13" s="59"/>
       <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="D14" s="55" t="s">
+      <c r="D14" s="56" t="s">
         <v>90</v>
       </c>
       <c r="E14" s="29" t="s">
@@ -2282,14 +2321,14 @@
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="D15" s="56"/>
+      <c r="D15" s="57"/>
       <c r="E15" s="29" t="s">
         <v>89</v>
       </c>
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="D16" s="57"/>
+      <c r="D16" s="58"/>
       <c r="E16" s="29" t="s">
         <v>11</v>
       </c>
@@ -2301,21 +2340,21 @@
       </c>
     </row>
     <row r="21" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="E21" s="58" t="s">
+      <c r="E21" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="F21" s="58"/>
+      <c r="F21" s="59"/>
       <c r="G21" s="26"/>
     </row>
     <row r="22" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="E22" s="58" t="s">
+      <c r="E22" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="58"/>
+      <c r="F22" s="59"/>
       <c r="G22" s="6"/>
     </row>
     <row r="23" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="E23" s="55" t="s">
+      <c r="E23" s="56" t="s">
         <v>90</v>
       </c>
       <c r="F23" s="29" t="s">
@@ -2324,14 +2363,14 @@
       <c r="G23" s="6"/>
     </row>
     <row r="24" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="E24" s="56"/>
+      <c r="E24" s="57"/>
       <c r="F24" s="29" t="s">
         <v>89</v>
       </c>
       <c r="G24" s="6"/>
     </row>
     <row r="25" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="E25" s="57"/>
+      <c r="E25" s="58"/>
       <c r="F25" s="29" t="s">
         <v>11</v>
       </c>
@@ -2686,7 +2725,7 @@
       <c r="B20" t="s">
         <v>128</v>
       </c>
-      <c r="C20" s="63" t="s">
+      <c r="C20" s="64" t="s">
         <v>122</v>
       </c>
       <c r="D20" s="45" t="s">
@@ -2754,7 +2793,7 @@
       </c>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="C21" s="63"/>
+      <c r="C21" s="64"/>
       <c r="D21" s="46" t="s">
         <v>18</v>
       </c>
@@ -2780,7 +2819,7 @@
       <c r="X21" s="41"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="C22" s="62" t="s">
+      <c r="C22" s="63" t="s">
         <v>124</v>
       </c>
       <c r="D22" s="45" t="s">
@@ -2848,7 +2887,7 @@
       </c>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="C23" s="62"/>
+      <c r="C23" s="63"/>
       <c r="D23" s="46" t="s">
         <v>18</v>
       </c>
@@ -2874,7 +2913,7 @@
       <c r="X23" s="41"/>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="C24" s="62" t="s">
+      <c r="C24" s="63" t="s">
         <v>129</v>
       </c>
       <c r="D24" s="46" t="s">
@@ -2942,7 +2981,7 @@
       </c>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="C25" s="62"/>
+      <c r="C25" s="63"/>
       <c r="D25" s="46" t="s">
         <v>3</v>
       </c>
@@ -2995,7 +3034,7 @@
       <c r="D32" s="48"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B33" s="59" t="s">
+      <c r="B33" s="60" t="s">
         <v>90</v>
       </c>
       <c r="C33" s="49" t="s">
@@ -3004,14 +3043,14 @@
       <c r="D33" s="6"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B34" s="60"/>
+      <c r="B34" s="61"/>
       <c r="C34" s="49" t="s">
         <v>88</v>
       </c>
       <c r="D34" s="6"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B35" s="61"/>
+      <c r="B35" s="62"/>
       <c r="C35" s="49" t="s">
         <v>11</v>
       </c>
@@ -3033,7 +3072,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -3052,21 +3091,21 @@
       <c r="B4" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="59" t="s">
         <v>135</v>
       </c>
-      <c r="D4" s="58"/>
+      <c r="D4" s="59"/>
       <c r="E4" s="26"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="58"/>
+      <c r="D5" s="59"/>
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="65" t="s">
         <v>90</v>
       </c>
       <c r="D6" s="29" t="s">
@@ -3075,14 +3114,14 @@
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C7" s="64"/>
+      <c r="C7" s="65"/>
       <c r="D7" s="29" t="s">
         <v>89</v>
       </c>
       <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C8" s="64"/>
+      <c r="C8" s="65"/>
       <c r="D8" s="29" t="s">
         <v>11</v>
       </c>
@@ -3104,25 +3143,25 @@
       <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C13" s="65">
+      <c r="C13" s="51">
         <v>42095</v>
       </c>
       <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C14" s="65">
+      <c r="C14" s="51">
         <v>42096</v>
       </c>
       <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C15" s="65">
+      <c r="C15" s="51">
         <v>42097</v>
       </c>
       <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C16" s="65" t="s">
+      <c r="C16" s="51" t="s">
         <v>137</v>
       </c>
       <c r="D16" s="6"/>
@@ -3138,6 +3177,150 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:C8"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="C4" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="C5" s="59" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="59"/>
+      <c r="E5" s="66" t="s">
+        <v>141</v>
+      </c>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="66" t="s">
+        <v>142</v>
+      </c>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="C6" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="59"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="C7" s="65" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="66"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="C8" s="65"/>
+      <c r="D8" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="66"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="C9" s="65"/>
+      <c r="D9" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="66"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:E9"/>
+    <mergeCell ref="L5:L9"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:C9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3337,13 +3520,13 @@
       <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C12" s="51" t="s">
+      <c r="C12" s="52" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C13" s="51"/>
+      <c r="C13" s="52"/>
       <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
@@ -3486,13 +3669,13 @@
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C10" s="52" t="s">
+      <c r="C10" s="53" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C11" s="52"/>
+      <c r="C11" s="53"/>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -3842,7 +4025,7 @@
       <c r="D6" s="21"/>
     </row>
     <row r="7" spans="1:4" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="54" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="22" t="s">
@@ -3852,7 +4035,7 @@
       <c r="D7" s="24"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="54"/>
+      <c r="A8" s="55"/>
       <c r="B8" s="18" t="s">
         <v>38</v>
       </c>
@@ -3875,7 +4058,7 @@
       <c r="C13" s="21"/>
     </row>
     <row r="14" spans="1:4" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="53" t="s">
+      <c r="A14" s="54" t="s">
         <v>36</v>
       </c>
       <c r="B14" s="22" t="s">
@@ -3884,7 +4067,7 @@
       <c r="C14" s="24"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="54"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="18" t="s">
         <v>38</v>
       </c>
@@ -3906,7 +4089,7 @@
       <c r="C19" s="21"/>
     </row>
     <row r="20" spans="1:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="53" t="s">
+      <c r="A20" s="54" t="s">
         <v>36</v>
       </c>
       <c r="B20" s="22" t="s">
@@ -3915,7 +4098,7 @@
       <c r="C20" s="24"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="54"/>
+      <c r="A21" s="55"/>
       <c r="B21" s="18" t="s">
         <v>38</v>
       </c>
@@ -3943,7 +4126,7 @@
       <c r="F25" s="21"/>
     </row>
     <row r="26" spans="1:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="53" t="s">
+      <c r="A26" s="54" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="22" t="s">
@@ -3955,7 +4138,7 @@
       <c r="F26" s="24"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="54"/>
+      <c r="A27" s="55"/>
       <c r="B27" s="18" t="s">
         <v>38</v>
       </c>
@@ -4002,7 +4185,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="53" t="s">
+      <c r="A32" s="54" t="s">
         <v>36</v>
       </c>
       <c r="B32" s="22" t="s">
@@ -4016,7 +4199,7 @@
       <c r="F32" s="24"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A33" s="54"/>
+      <c r="A33" s="55"/>
       <c r="B33" s="18" t="s">
         <v>38</v>
       </c>
@@ -4049,7 +4232,7 @@
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="53" t="s">
+      <c r="A38" s="54" t="s">
         <v>36</v>
       </c>
       <c r="B38" s="22" t="s">
@@ -4061,7 +4244,7 @@
       <c r="F38" s="24"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A39" s="54"/>
+      <c r="A39" s="55"/>
       <c r="B39" s="18" t="s">
         <v>38</v>
       </c>
@@ -4092,7 +4275,7 @@
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="53" t="s">
+      <c r="A44" s="54" t="s">
         <v>36</v>
       </c>
       <c r="B44" s="22" t="s">
@@ -4104,7 +4287,7 @@
       <c r="F44" s="24"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A45" s="54"/>
+      <c r="A45" s="55"/>
       <c r="B45" s="18" t="s">
         <v>38</v>
       </c>
@@ -4174,7 +4357,7 @@
       <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="55" t="s">
         <v>51</v>
       </c>
       <c r="B7" s="25" t="s">
@@ -4183,7 +4366,7 @@
       <c r="C7" s="26"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="54"/>
+      <c r="A8" s="55"/>
       <c r="B8" s="25" t="s">
         <v>54</v>
       </c>
@@ -4243,7 +4426,7 @@
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="54" t="s">
+      <c r="A19" s="55" t="s">
         <v>51</v>
       </c>
       <c r="B19" s="25" t="s">
@@ -4256,7 +4439,7 @@
       <c r="G19" s="26"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="54"/>
+      <c r="A20" s="55"/>
       <c r="B20" s="25" t="s">
         <v>60</v>
       </c>
@@ -4299,7 +4482,7 @@
       <c r="E25" s="6"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="54" t="s">
+      <c r="A26" s="55" t="s">
         <v>51</v>
       </c>
       <c r="B26" s="25" t="s">
@@ -4310,7 +4493,7 @@
       <c r="E26" s="26"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="54"/>
+      <c r="A27" s="55"/>
       <c r="B27" s="25" t="s">
         <v>60</v>
       </c>
@@ -4377,7 +4560,7 @@
       <c r="C37" s="6"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A38" s="54" t="s">
+      <c r="A38" s="55" t="s">
         <v>51</v>
       </c>
       <c r="B38" s="25" t="s">
@@ -4386,7 +4569,7 @@
       <c r="C38" s="26"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A39" s="54"/>
+      <c r="A39" s="55"/>
       <c r="B39" s="25" t="s">
         <v>53</v>
       </c>

--- a/src/test/data/anno_VerticalRecords_template.xlsx
+++ b/src/test/data/anno_VerticalRecords_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2925" yWindow="1890" windowWidth="14805" windowHeight="8010" firstSheet="10" activeTab="14"/>
+    <workbookView xWindow="2925" yWindow="1890" windowWidth="14805" windowHeight="8010" firstSheet="12" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="開始位置の指定" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,10 @@
     <sheet name="ネストした表" sheetId="13" r:id="rId13"/>
     <sheet name="数式を指定" sheetId="14" r:id="rId14"/>
     <sheet name="独自の開始位置" sheetId="15" r:id="rId15"/>
+    <sheet name="配列カラムの設定" sheetId="17" r:id="rId16"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId16"/>
+    <externalReference r:id="rId17"/>
   </externalReferences>
   <definedNames>
     <definedName name="機能名" localSheetId="8">'[1]オプション設定（入力規則）'!$C$10</definedName>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="151">
   <si>
     <t>○×一覧</t>
     <rPh sb="2" eb="4">
@@ -1036,6 +1037,68 @@
   </si>
   <si>
     <t>クラスB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アノテーション「@XlsArrayColumns」の指定</t>
+    <rPh sb="26" eb="28">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配列カラム（文字列）</t>
+    <rPh sb="0" eb="2">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>モジレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配列カラム（結合がある）</t>
+    <rPh sb="0" eb="2">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケツゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>連絡先</t>
+    <rPh sb="0" eb="2">
+      <t>レンラク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配列カラム（型変換）</t>
+    <rPh sb="0" eb="2">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>カタヘンカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>候補日</t>
+    <rPh sb="0" eb="3">
+      <t>コウホビ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1159,7 +1222,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1280,12 +1343,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1373,6 +1481,7 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1413,6 +1522,42 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -1454,15 +1599,16 @@
       <sheetName val="余分なレコードの制御と終端の判定"/>
       <sheetName val="結合セルの補正"/>
       <sheetName val="独自の開始位置"/>
+      <sheetName val="配列カラムの設定"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
       <sheetData sheetId="7">
         <row r="30">
           <cell r="C30" t="str">
@@ -1485,15 +1631,16 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2298,21 +2445,21 @@
       <c r="C12" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D12" s="59" t="s">
+      <c r="D12" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="E12" s="59"/>
+      <c r="E12" s="60"/>
       <c r="F12" s="26"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="D13" s="59" t="s">
+      <c r="D13" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="59"/>
+      <c r="E13" s="60"/>
       <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="D14" s="56" t="s">
+      <c r="D14" s="57" t="s">
         <v>90</v>
       </c>
       <c r="E14" s="29" t="s">
@@ -2321,14 +2468,14 @@
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="D15" s="57"/>
+      <c r="D15" s="58"/>
       <c r="E15" s="29" t="s">
         <v>89</v>
       </c>
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="D16" s="58"/>
+      <c r="D16" s="59"/>
       <c r="E16" s="29" t="s">
         <v>11</v>
       </c>
@@ -2340,21 +2487,21 @@
       </c>
     </row>
     <row r="21" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="E21" s="59" t="s">
+      <c r="E21" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="F21" s="59"/>
+      <c r="F21" s="60"/>
       <c r="G21" s="26"/>
     </row>
     <row r="22" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="E22" s="59" t="s">
+      <c r="E22" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="59"/>
+      <c r="F22" s="60"/>
       <c r="G22" s="6"/>
     </row>
     <row r="23" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="E23" s="56" t="s">
+      <c r="E23" s="57" t="s">
         <v>90</v>
       </c>
       <c r="F23" s="29" t="s">
@@ -2363,14 +2510,14 @@
       <c r="G23" s="6"/>
     </row>
     <row r="24" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="E24" s="57"/>
+      <c r="E24" s="58"/>
       <c r="F24" s="29" t="s">
         <v>89</v>
       </c>
       <c r="G24" s="6"/>
     </row>
     <row r="25" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="E25" s="58"/>
+      <c r="E25" s="59"/>
       <c r="F25" s="29" t="s">
         <v>11</v>
       </c>
@@ -2725,7 +2872,7 @@
       <c r="B20" t="s">
         <v>128</v>
       </c>
-      <c r="C20" s="64" t="s">
+      <c r="C20" s="65" t="s">
         <v>122</v>
       </c>
       <c r="D20" s="45" t="s">
@@ -2793,7 +2940,7 @@
       </c>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="C21" s="64"/>
+      <c r="C21" s="65"/>
       <c r="D21" s="46" t="s">
         <v>18</v>
       </c>
@@ -2819,7 +2966,7 @@
       <c r="X21" s="41"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="C22" s="63" t="s">
+      <c r="C22" s="64" t="s">
         <v>124</v>
       </c>
       <c r="D22" s="45" t="s">
@@ -2887,7 +3034,7 @@
       </c>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="C23" s="63"/>
+      <c r="C23" s="64"/>
       <c r="D23" s="46" t="s">
         <v>18</v>
       </c>
@@ -2913,7 +3060,7 @@
       <c r="X23" s="41"/>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="C24" s="63" t="s">
+      <c r="C24" s="64" t="s">
         <v>129</v>
       </c>
       <c r="D24" s="46" t="s">
@@ -2981,7 +3128,7 @@
       </c>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="C25" s="63"/>
+      <c r="C25" s="64"/>
       <c r="D25" s="46" t="s">
         <v>3</v>
       </c>
@@ -3034,7 +3181,7 @@
       <c r="D32" s="48"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B33" s="60" t="s">
+      <c r="B33" s="61" t="s">
         <v>90</v>
       </c>
       <c r="C33" s="49" t="s">
@@ -3043,14 +3190,14 @@
       <c r="D33" s="6"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B34" s="61"/>
+      <c r="B34" s="62"/>
       <c r="C34" s="49" t="s">
         <v>88</v>
       </c>
       <c r="D34" s="6"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B35" s="62"/>
+      <c r="B35" s="63"/>
       <c r="C35" s="49" t="s">
         <v>11</v>
       </c>
@@ -3091,21 +3238,21 @@
       <c r="B4" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="60" t="s">
         <v>135</v>
       </c>
-      <c r="D4" s="59"/>
+      <c r="D4" s="60"/>
       <c r="E4" s="26"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="59"/>
+      <c r="D5" s="60"/>
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="66" t="s">
         <v>90</v>
       </c>
       <c r="D6" s="29" t="s">
@@ -3114,14 +3261,14 @@
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C7" s="65"/>
+      <c r="C7" s="66"/>
       <c r="D7" s="29" t="s">
         <v>89</v>
       </c>
       <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C8" s="65"/>
+      <c r="C8" s="66"/>
       <c r="D8" s="29" t="s">
         <v>11</v>
       </c>
@@ -3187,7 +3334,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -3209,11 +3356,11 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="60" t="s">
         <v>140</v>
       </c>
-      <c r="D5" s="59"/>
-      <c r="E5" s="66" t="s">
+      <c r="D5" s="60"/>
+      <c r="E5" s="67" t="s">
         <v>141</v>
       </c>
       <c r="F5" s="26"/>
@@ -3222,7 +3369,7 @@
       <c r="I5" s="26"/>
       <c r="J5" s="26"/>
       <c r="K5" s="26"/>
-      <c r="L5" s="66" t="s">
+      <c r="L5" s="67" t="s">
         <v>142</v>
       </c>
       <c r="M5" s="26"/>
@@ -3233,18 +3380,18 @@
       <c r="R5" s="26"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="59"/>
-      <c r="E6" s="66"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="67"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
-      <c r="L6" s="66"/>
+      <c r="L6" s="67"/>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
@@ -3253,20 +3400,20 @@
       <c r="R6" s="6"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="66" t="s">
         <v>90</v>
       </c>
       <c r="D7" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="E7" s="66"/>
+      <c r="E7" s="67"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
-      <c r="L7" s="66"/>
+      <c r="L7" s="67"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
@@ -3275,18 +3422,18 @@
       <c r="R7" s="6"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="C8" s="65"/>
+      <c r="C8" s="66"/>
       <c r="D8" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="E8" s="66"/>
+      <c r="E8" s="67"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
-      <c r="L8" s="66"/>
+      <c r="L8" s="67"/>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
@@ -3295,18 +3442,18 @@
       <c r="R8" s="6"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="C9" s="65"/>
+      <c r="C9" s="66"/>
       <c r="D9" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="66"/>
+      <c r="E9" s="67"/>
       <c r="F9" s="30"/>
       <c r="G9" s="30"/>
       <c r="H9" s="30"/>
       <c r="I9" s="30"/>
       <c r="J9" s="30"/>
       <c r="K9" s="30"/>
-      <c r="L9" s="66"/>
+      <c r="L9" s="67"/>
       <c r="M9" s="30"/>
       <c r="N9" s="30"/>
       <c r="O9" s="30"/>
@@ -3321,6 +3468,147 @@
     <mergeCell ref="L5:L9"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:C9"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B6" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B7" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B8" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="69"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B9" s="70"/>
+      <c r="C9" s="71"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B10" s="72"/>
+      <c r="C10" s="73"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B13" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B14" s="52" t="s">
+        <v>146</v>
+      </c>
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B15" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="6"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B16" s="74" t="s">
+        <v>147</v>
+      </c>
+      <c r="C16" s="75"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B17" s="74"/>
+      <c r="C17" s="76"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B18" s="74"/>
+      <c r="C18" s="76"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B19" s="74"/>
+      <c r="C19" s="76"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B20" s="74"/>
+      <c r="C20" s="76"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B21" s="74"/>
+      <c r="C21" s="77"/>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B24" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B25" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="C25" s="6"/>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B26" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="6"/>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B27" s="78" t="s">
+        <v>150</v>
+      </c>
+      <c r="C27" s="79"/>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B28" s="80"/>
+      <c r="C28" s="81"/>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B29" s="82"/>
+      <c r="C29" s="83"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C20:C21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3520,13 +3808,13 @@
       <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C12" s="52" t="s">
+      <c r="C12" s="53" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C13" s="52"/>
+      <c r="C13" s="53"/>
       <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
@@ -3669,13 +3957,13 @@
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="54" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C11" s="53"/>
+      <c r="C11" s="54"/>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -4025,7 +4313,7 @@
       <c r="D6" s="21"/>
     </row>
     <row r="7" spans="1:4" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="55" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="22" t="s">
@@ -4035,7 +4323,7 @@
       <c r="D7" s="24"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="55"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="18" t="s">
         <v>38</v>
       </c>
@@ -4058,7 +4346,7 @@
       <c r="C13" s="21"/>
     </row>
     <row r="14" spans="1:4" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="55" t="s">
         <v>36</v>
       </c>
       <c r="B14" s="22" t="s">
@@ -4067,7 +4355,7 @@
       <c r="C14" s="24"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="55"/>
+      <c r="A15" s="56"/>
       <c r="B15" s="18" t="s">
         <v>38</v>
       </c>
@@ -4089,7 +4377,7 @@
       <c r="C19" s="21"/>
     </row>
     <row r="20" spans="1:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="54" t="s">
+      <c r="A20" s="55" t="s">
         <v>36</v>
       </c>
       <c r="B20" s="22" t="s">
@@ -4098,7 +4386,7 @@
       <c r="C20" s="24"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="55"/>
+      <c r="A21" s="56"/>
       <c r="B21" s="18" t="s">
         <v>38</v>
       </c>
@@ -4126,7 +4414,7 @@
       <c r="F25" s="21"/>
     </row>
     <row r="26" spans="1:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="54" t="s">
+      <c r="A26" s="55" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="22" t="s">
@@ -4138,7 +4426,7 @@
       <c r="F26" s="24"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="55"/>
+      <c r="A27" s="56"/>
       <c r="B27" s="18" t="s">
         <v>38</v>
       </c>
@@ -4185,7 +4473,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="54" t="s">
+      <c r="A32" s="55" t="s">
         <v>36</v>
       </c>
       <c r="B32" s="22" t="s">
@@ -4199,7 +4487,7 @@
       <c r="F32" s="24"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A33" s="55"/>
+      <c r="A33" s="56"/>
       <c r="B33" s="18" t="s">
         <v>38</v>
       </c>
@@ -4232,7 +4520,7 @@
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="54" t="s">
+      <c r="A38" s="55" t="s">
         <v>36</v>
       </c>
       <c r="B38" s="22" t="s">
@@ -4244,7 +4532,7 @@
       <c r="F38" s="24"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A39" s="55"/>
+      <c r="A39" s="56"/>
       <c r="B39" s="18" t="s">
         <v>38</v>
       </c>
@@ -4275,7 +4563,7 @@
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="54" t="s">
+      <c r="A44" s="55" t="s">
         <v>36</v>
       </c>
       <c r="B44" s="22" t="s">
@@ -4287,7 +4575,7 @@
       <c r="F44" s="24"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A45" s="55"/>
+      <c r="A45" s="56"/>
       <c r="B45" s="18" t="s">
         <v>38</v>
       </c>
@@ -4357,7 +4645,7 @@
       <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="56" t="s">
         <v>51</v>
       </c>
       <c r="B7" s="25" t="s">
@@ -4366,7 +4654,7 @@
       <c r="C7" s="26"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="55"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="25" t="s">
         <v>54</v>
       </c>
@@ -4426,7 +4714,7 @@
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="55" t="s">
+      <c r="A19" s="56" t="s">
         <v>51</v>
       </c>
       <c r="B19" s="25" t="s">
@@ -4439,7 +4727,7 @@
       <c r="G19" s="26"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="55"/>
+      <c r="A20" s="56"/>
       <c r="B20" s="25" t="s">
         <v>60</v>
       </c>
@@ -4482,7 +4770,7 @@
       <c r="E25" s="6"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="55" t="s">
+      <c r="A26" s="56" t="s">
         <v>51</v>
       </c>
       <c r="B26" s="25" t="s">
@@ -4493,7 +4781,7 @@
       <c r="E26" s="26"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="55"/>
+      <c r="A27" s="56"/>
       <c r="B27" s="25" t="s">
         <v>60</v>
       </c>
@@ -4560,7 +4848,7 @@
       <c r="C37" s="6"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A38" s="55" t="s">
+      <c r="A38" s="56" t="s">
         <v>51</v>
       </c>
       <c r="B38" s="25" t="s">
@@ -4569,7 +4857,7 @@
       <c r="C38" s="26"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A39" s="55"/>
+      <c r="A39" s="56"/>
       <c r="B39" s="25" t="s">
         <v>53</v>
       </c>

--- a/src/test/data/anno_VerticalRecords_template.xlsx
+++ b/src/test/data/anno_VerticalRecords_template.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2925" yWindow="1890" windowWidth="14805" windowHeight="8010" firstSheet="12" activeTab="15"/>
+    <workbookView xWindow="2925" yWindow="1890" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="開始位置の指定" sheetId="1" r:id="rId1"/>
@@ -33,12 +33,12 @@
     <definedName name="操作" localSheetId="8">'[1]オプション設定（入力規則）'!$C$30:$C$33</definedName>
     <definedName name="操作">'オプション設定（入力規則）'!$D$32:$G$32</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="152">
   <si>
     <t>○×一覧</t>
     <rPh sb="2" eb="4">
@@ -1101,11 +1101,18 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>マップカラム（optionalの確認）</t>
+    <rPh sb="16" eb="18">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
@@ -1393,7 +1400,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1482,6 +1489,16 @@
     <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1522,23 +1539,26 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1546,18 +1566,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -1573,6 +1581,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1647,7 +1658,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1689,7 +1700,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1722,9 +1733,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1757,6 +1785,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1935,7 +1980,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
@@ -2445,21 +2490,21 @@
       <c r="C12" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D12" s="60" t="s">
+      <c r="D12" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="E12" s="60"/>
+      <c r="E12" s="68"/>
       <c r="F12" s="26"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="D13" s="60" t="s">
+      <c r="D13" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="60"/>
+      <c r="E13" s="68"/>
       <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="D14" s="57" t="s">
+      <c r="D14" s="65" t="s">
         <v>90</v>
       </c>
       <c r="E14" s="29" t="s">
@@ -2468,14 +2513,14 @@
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="D15" s="58"/>
+      <c r="D15" s="66"/>
       <c r="E15" s="29" t="s">
         <v>89</v>
       </c>
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="D16" s="59"/>
+      <c r="D16" s="67"/>
       <c r="E16" s="29" t="s">
         <v>11</v>
       </c>
@@ -2487,21 +2532,21 @@
       </c>
     </row>
     <row r="21" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="E21" s="60" t="s">
+      <c r="E21" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="F21" s="60"/>
+      <c r="F21" s="68"/>
       <c r="G21" s="26"/>
     </row>
     <row r="22" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="E22" s="60" t="s">
+      <c r="E22" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="60"/>
+      <c r="F22" s="68"/>
       <c r="G22" s="6"/>
     </row>
     <row r="23" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="E23" s="57" t="s">
+      <c r="E23" s="65" t="s">
         <v>90</v>
       </c>
       <c r="F23" s="29" t="s">
@@ -2510,14 +2555,14 @@
       <c r="G23" s="6"/>
     </row>
     <row r="24" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="E24" s="58"/>
+      <c r="E24" s="66"/>
       <c r="F24" s="29" t="s">
         <v>89</v>
       </c>
       <c r="G24" s="6"/>
     </row>
     <row r="25" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="E25" s="59"/>
+      <c r="E25" s="67"/>
       <c r="F25" s="29" t="s">
         <v>11</v>
       </c>
@@ -2872,7 +2917,7 @@
       <c r="B20" t="s">
         <v>128</v>
       </c>
-      <c r="C20" s="65" t="s">
+      <c r="C20" s="73" t="s">
         <v>122</v>
       </c>
       <c r="D20" s="45" t="s">
@@ -2940,7 +2985,7 @@
       </c>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="C21" s="65"/>
+      <c r="C21" s="73"/>
       <c r="D21" s="46" t="s">
         <v>18</v>
       </c>
@@ -2966,7 +3011,7 @@
       <c r="X21" s="41"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="C22" s="64" t="s">
+      <c r="C22" s="72" t="s">
         <v>124</v>
       </c>
       <c r="D22" s="45" t="s">
@@ -3034,7 +3079,7 @@
       </c>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="C23" s="64"/>
+      <c r="C23" s="72"/>
       <c r="D23" s="46" t="s">
         <v>18</v>
       </c>
@@ -3060,7 +3105,7 @@
       <c r="X23" s="41"/>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="C24" s="64" t="s">
+      <c r="C24" s="72" t="s">
         <v>129</v>
       </c>
       <c r="D24" s="46" t="s">
@@ -3128,7 +3173,7 @@
       </c>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="C25" s="64"/>
+      <c r="C25" s="72"/>
       <c r="D25" s="46" t="s">
         <v>3</v>
       </c>
@@ -3181,7 +3226,7 @@
       <c r="D32" s="48"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B33" s="61" t="s">
+      <c r="B33" s="69" t="s">
         <v>90</v>
       </c>
       <c r="C33" s="49" t="s">
@@ -3190,14 +3235,14 @@
       <c r="D33" s="6"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B34" s="62"/>
+      <c r="B34" s="70"/>
       <c r="C34" s="49" t="s">
         <v>88</v>
       </c>
       <c r="D34" s="6"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B35" s="63"/>
+      <c r="B35" s="71"/>
       <c r="C35" s="49" t="s">
         <v>11</v>
       </c>
@@ -3238,21 +3283,21 @@
       <c r="B4" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="68" t="s">
         <v>135</v>
       </c>
-      <c r="D4" s="60"/>
+      <c r="D4" s="68"/>
       <c r="E4" s="26"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="60"/>
+      <c r="D5" s="68"/>
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="74" t="s">
         <v>90</v>
       </c>
       <c r="D6" s="29" t="s">
@@ -3261,14 +3306,14 @@
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C7" s="66"/>
+      <c r="C7" s="74"/>
       <c r="D7" s="29" t="s">
         <v>89</v>
       </c>
       <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C8" s="66"/>
+      <c r="C8" s="74"/>
       <c r="D8" s="29" t="s">
         <v>11</v>
       </c>
@@ -3356,11 +3401,11 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="68" t="s">
         <v>140</v>
       </c>
-      <c r="D5" s="60"/>
-      <c r="E5" s="67" t="s">
+      <c r="D5" s="68"/>
+      <c r="E5" s="75" t="s">
         <v>141</v>
       </c>
       <c r="F5" s="26"/>
@@ -3369,7 +3414,7 @@
       <c r="I5" s="26"/>
       <c r="J5" s="26"/>
       <c r="K5" s="26"/>
-      <c r="L5" s="67" t="s">
+      <c r="L5" s="75" t="s">
         <v>142</v>
       </c>
       <c r="M5" s="26"/>
@@ -3380,18 +3425,18 @@
       <c r="R5" s="26"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="60"/>
-      <c r="E6" s="67"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="75"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
-      <c r="L6" s="67"/>
+      <c r="L6" s="75"/>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
@@ -3400,20 +3445,20 @@
       <c r="R6" s="6"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="C7" s="66" t="s">
+      <c r="C7" s="74" t="s">
         <v>90</v>
       </c>
       <c r="D7" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="E7" s="67"/>
+      <c r="E7" s="75"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
-      <c r="L7" s="67"/>
+      <c r="L7" s="75"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
@@ -3422,18 +3467,18 @@
       <c r="R7" s="6"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="C8" s="66"/>
+      <c r="C8" s="74"/>
       <c r="D8" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="E8" s="67"/>
+      <c r="E8" s="75"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
-      <c r="L8" s="67"/>
+      <c r="L8" s="75"/>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
@@ -3442,18 +3487,18 @@
       <c r="R8" s="6"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="C9" s="66"/>
+      <c r="C9" s="74"/>
       <c r="D9" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="67"/>
+      <c r="E9" s="75"/>
       <c r="F9" s="30"/>
       <c r="G9" s="30"/>
       <c r="H9" s="30"/>
       <c r="I9" s="30"/>
       <c r="J9" s="30"/>
       <c r="K9" s="30"/>
-      <c r="L9" s="67"/>
+      <c r="L9" s="75"/>
       <c r="M9" s="30"/>
       <c r="N9" s="30"/>
       <c r="O9" s="30"/>
@@ -3478,7 +3523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -3515,18 +3560,18 @@
       <c r="C7" s="6"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="79" t="s">
         <v>116</v>
       </c>
-      <c r="C8" s="69"/>
+      <c r="C8" s="54"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B9" s="70"/>
-      <c r="C9" s="71"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="55"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B10" s="72"/>
-      <c r="C10" s="73"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="56"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
@@ -3546,30 +3591,30 @@
       <c r="C15" s="6"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B16" s="74" t="s">
+      <c r="B16" s="82" t="s">
         <v>147</v>
       </c>
-      <c r="C16" s="75"/>
+      <c r="C16" s="57"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B17" s="74"/>
-      <c r="C17" s="76"/>
+      <c r="B17" s="82"/>
+      <c r="C17" s="83"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B18" s="74"/>
-      <c r="C18" s="76"/>
+      <c r="B18" s="82"/>
+      <c r="C18" s="83"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B19" s="74"/>
-      <c r="C19" s="76"/>
+      <c r="B19" s="82"/>
+      <c r="C19" s="83"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B20" s="74"/>
-      <c r="C20" s="76"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="83"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B21" s="74"/>
-      <c r="C21" s="77"/>
+      <c r="B21" s="82"/>
+      <c r="C21" s="84"/>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
@@ -3589,18 +3634,18 @@
       <c r="C26" s="6"/>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B27" s="78" t="s">
+      <c r="B27" s="76" t="s">
         <v>150</v>
       </c>
-      <c r="C27" s="79"/>
+      <c r="C27" s="58"/>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B28" s="80"/>
-      <c r="C28" s="81"/>
+      <c r="B28" s="77"/>
+      <c r="C28" s="59"/>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B29" s="82"/>
-      <c r="C29" s="83"/>
+      <c r="B29" s="78"/>
+      <c r="C29" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3808,13 +3853,13 @@
       <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C12" s="53" t="s">
+      <c r="C12" s="61" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C13" s="53"/>
+      <c r="C13" s="61"/>
       <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
@@ -3957,13 +4002,13 @@
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="62" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C11" s="54"/>
+      <c r="C11" s="62"/>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -4058,10 +4103,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4180,6 +4225,45 @@
         <v>108</v>
       </c>
       <c r="C22" s="6"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B24" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="6"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B25" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="6"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B26" s="14">
+        <v>42095</v>
+      </c>
+      <c r="C26" s="6"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B27" s="14">
+        <v>42096</v>
+      </c>
+      <c r="C27" s="6"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B28" s="14">
+        <v>42097</v>
+      </c>
+      <c r="C28" s="6"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B29" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -4313,7 +4397,7 @@
       <c r="D6" s="21"/>
     </row>
     <row r="7" spans="1:4" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="63" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="22" t="s">
@@ -4323,7 +4407,7 @@
       <c r="D7" s="24"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="56"/>
+      <c r="A8" s="64"/>
       <c r="B8" s="18" t="s">
         <v>38</v>
       </c>
@@ -4346,7 +4430,7 @@
       <c r="C13" s="21"/>
     </row>
     <row r="14" spans="1:4" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="63" t="s">
         <v>36</v>
       </c>
       <c r="B14" s="22" t="s">
@@ -4355,7 +4439,7 @@
       <c r="C14" s="24"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="56"/>
+      <c r="A15" s="64"/>
       <c r="B15" s="18" t="s">
         <v>38</v>
       </c>
@@ -4377,7 +4461,7 @@
       <c r="C19" s="21"/>
     </row>
     <row r="20" spans="1:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="55" t="s">
+      <c r="A20" s="63" t="s">
         <v>36</v>
       </c>
       <c r="B20" s="22" t="s">
@@ -4386,7 +4470,7 @@
       <c r="C20" s="24"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="56"/>
+      <c r="A21" s="64"/>
       <c r="B21" s="18" t="s">
         <v>38</v>
       </c>
@@ -4414,7 +4498,7 @@
       <c r="F25" s="21"/>
     </row>
     <row r="26" spans="1:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="55" t="s">
+      <c r="A26" s="63" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="22" t="s">
@@ -4426,7 +4510,7 @@
       <c r="F26" s="24"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="56"/>
+      <c r="A27" s="64"/>
       <c r="B27" s="18" t="s">
         <v>38</v>
       </c>
@@ -4473,7 +4557,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="55" t="s">
+      <c r="A32" s="63" t="s">
         <v>36</v>
       </c>
       <c r="B32" s="22" t="s">
@@ -4487,7 +4571,7 @@
       <c r="F32" s="24"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A33" s="56"/>
+      <c r="A33" s="64"/>
       <c r="B33" s="18" t="s">
         <v>38</v>
       </c>
@@ -4520,7 +4604,7 @@
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="55" t="s">
+      <c r="A38" s="63" t="s">
         <v>36</v>
       </c>
       <c r="B38" s="22" t="s">
@@ -4532,7 +4616,7 @@
       <c r="F38" s="24"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A39" s="56"/>
+      <c r="A39" s="64"/>
       <c r="B39" s="18" t="s">
         <v>38</v>
       </c>
@@ -4563,7 +4647,7 @@
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="55" t="s">
+      <c r="A44" s="63" t="s">
         <v>36</v>
       </c>
       <c r="B44" s="22" t="s">
@@ -4575,7 +4659,7 @@
       <c r="F44" s="24"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A45" s="56"/>
+      <c r="A45" s="64"/>
       <c r="B45" s="18" t="s">
         <v>38</v>
       </c>
@@ -4645,7 +4729,7 @@
       <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="64" t="s">
         <v>51</v>
       </c>
       <c r="B7" s="25" t="s">
@@ -4654,7 +4738,7 @@
       <c r="C7" s="26"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="56"/>
+      <c r="A8" s="64"/>
       <c r="B8" s="25" t="s">
         <v>54</v>
       </c>
@@ -4714,7 +4798,7 @@
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="56" t="s">
+      <c r="A19" s="64" t="s">
         <v>51</v>
       </c>
       <c r="B19" s="25" t="s">
@@ -4727,7 +4811,7 @@
       <c r="G19" s="26"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="56"/>
+      <c r="A20" s="64"/>
       <c r="B20" s="25" t="s">
         <v>60</v>
       </c>
@@ -4770,7 +4854,7 @@
       <c r="E25" s="6"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="56" t="s">
+      <c r="A26" s="64" t="s">
         <v>51</v>
       </c>
       <c r="B26" s="25" t="s">
@@ -4781,7 +4865,7 @@
       <c r="E26" s="26"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="56"/>
+      <c r="A27" s="64"/>
       <c r="B27" s="25" t="s">
         <v>60</v>
       </c>
@@ -4848,7 +4932,7 @@
       <c r="C37" s="6"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A38" s="56" t="s">
+      <c r="A38" s="64" t="s">
         <v>51</v>
       </c>
       <c r="B38" s="25" t="s">
@@ -4857,7 +4941,7 @@
       <c r="C38" s="26"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A39" s="56"/>
+      <c r="A39" s="64"/>
       <c r="B39" s="25" t="s">
         <v>53</v>
       </c>

--- a/src/test/data/anno_VerticalRecords_template.xlsx
+++ b/src/test/data/anno_VerticalRecords_template.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6C049C-5AA7-41AD-826F-F54979A24306}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2925" yWindow="1890" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="33210" yWindow="2025" windowWidth="21615" windowHeight="13860" firstSheet="11" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="開始位置の指定" sheetId="1" r:id="rId1"/>
@@ -23,22 +24,32 @@
     <sheet name="数式を指定" sheetId="14" r:id="rId14"/>
     <sheet name="独自の開始位置" sheetId="15" r:id="rId15"/>
     <sheet name="配列カラムの設定" sheetId="17" r:id="rId16"/>
+    <sheet name="コメント情報" sheetId="18" r:id="rId17"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId17"/>
+    <externalReference r:id="rId18"/>
   </externalReferences>
   <definedNames>
+    <definedName name="機能名" localSheetId="16">'[1]オプション設定（入力規則）'!$C$10</definedName>
     <definedName name="機能名" localSheetId="8">'[1]オプション設定（入力規則）'!$C$10</definedName>
     <definedName name="機能名">'オプション設定（入力規則）'!$D$12</definedName>
+    <definedName name="操作" localSheetId="16">'[1]オプション設定（入力規則）'!$C$30:$C$33</definedName>
     <definedName name="操作" localSheetId="8">'[1]オプション設定（入力規則）'!$C$30:$C$33</definedName>
     <definedName name="操作">'オプション設定（入力規則）'!$D$32:$G$32</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="156">
   <si>
     <t>○×一覧</t>
     <rPh sb="2" eb="4">
@@ -1108,11 +1119,39 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>コメント情報の取得</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通常のカラム</t>
+    <rPh sb="0" eb="2">
+      <t>ツウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップカラム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配列カラム</t>
+    <rPh sb="0" eb="2">
+      <t>ハイレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
@@ -1400,7 +1439,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1566,6 +1605,24 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -1611,6 +1668,7 @@
       <sheetName val="結合セルの補正"/>
       <sheetName val="独自の開始位置"/>
       <sheetName val="配列カラムの設定"/>
+      <sheetName val="コメント情報"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -1652,6 +1710,7 @@
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
       <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1977,10 +2036,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
@@ -2100,7 +2159,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2224,7 +2283,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -2430,7 +2489,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2583,7 +2642,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:X35"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -3261,7 +3320,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3376,7 +3435,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3520,11 +3579,11 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C14" sqref="C14:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3660,8 +3719,146 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1AB862A-2292-415E-8B92-635D070D5EEB}">
+  <dimension ref="A1:C27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="86"/>
+    <col min="2" max="2" width="27" style="86" customWidth="1"/>
+    <col min="3" max="3" width="27.625" style="86" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="86"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="85" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C2" s="86" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="85" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="87" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="88"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="87" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="88"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="89" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="88"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="85" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="87" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="88"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="87" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="88"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="89">
+        <v>42095</v>
+      </c>
+      <c r="B14" s="88"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="89">
+        <v>42096</v>
+      </c>
+      <c r="B15" s="88"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="89">
+        <v>42097</v>
+      </c>
+      <c r="B16" s="88"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="85" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="87" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="6"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="87" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" s="90" t="s">
+        <v>147</v>
+      </c>
+      <c r="B22" s="57"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" s="90"/>
+      <c r="B23" s="83"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" s="90"/>
+      <c r="B24" s="83"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" s="90"/>
+      <c r="B25" s="83"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" s="90"/>
+      <c r="B26" s="83"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" s="90"/>
+      <c r="B27" s="84"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B26:B27"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3798,7 +3995,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3946,7 +4143,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4102,7 +4299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -4272,7 +4469,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4359,7 +4556,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4684,7 +4881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -4956,16 +5153,16 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C8 C19:G20 C26:E27 C38:C39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C8 C19:G20 C26:E27 C38:C39" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>"レ,-"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C17:G17 C24:E24 C36">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C17:G17 C24:E24 C36" xr:uid="{00000000-0002-0000-0700-000001000000}">
       <formula1>"○,×,-"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6" xr:uid="{00000000-0002-0000-0700-000002000000}">
       <formula1>機能名</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18:G18 C25:E25 C37">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18:G18 C25:E25 C37" xr:uid="{00000000-0002-0000-0700-000003000000}">
       <formula1>操作</formula1>
     </dataValidation>
   </dataValidations>
@@ -4974,7 +5171,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/src/test/data/anno_VerticalRecords_template.xlsx
+++ b/src/test/data/anno_VerticalRecords_template.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6C049C-5AA7-41AD-826F-F54979A24306}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61DF8BCD-3DB6-4E49-90AC-4C2D6A1A6CDA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33210" yWindow="2025" windowWidth="21615" windowHeight="13860" firstSheet="11" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32475" yWindow="2565" windowWidth="20835" windowHeight="11835" firstSheet="12" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="開始位置の指定" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,10 @@
     <sheet name="独自の開始位置" sheetId="15" r:id="rId15"/>
     <sheet name="配列カラムの設定" sheetId="17" r:id="rId16"/>
     <sheet name="コメント情報" sheetId="18" r:id="rId17"/>
+    <sheet name="メソッドが存在しない" sheetId="19" r:id="rId18"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId18"/>
+    <externalReference r:id="rId19"/>
   </externalReferences>
   <definedNames>
     <definedName name="機能名" localSheetId="16">'[1]オプション設定（入力規則）'!$C$10</definedName>
@@ -38,18 +39,11 @@
     <definedName name="操作">'オプション設定（入力規則）'!$D$32:$G$32</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="158">
   <si>
     <t>○×一覧</t>
     <rPh sb="2" eb="4">
@@ -1144,6 +1138,23 @@
     <t>配列カラム</t>
     <rPh sb="0" eb="2">
       <t>ハイレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対応するアクセッサメソッドが存在しないときのテスト</t>
+    <rPh sb="0" eb="2">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ネストした表</t>
+    <rPh sb="5" eb="6">
+      <t>ヒョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1439,7 +1450,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1539,6 +1550,23 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1605,23 +1633,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1669,15 +1685,16 @@
       <sheetName val="独自の開始位置"/>
       <sheetName val="配列カラムの設定"/>
       <sheetName val="コメント情報"/>
+      <sheetName val="メソッドが存在しない"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
       <sheetData sheetId="7">
         <row r="30">
           <cell r="C30" t="str">
@@ -1700,17 +1717,18 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2549,21 +2567,21 @@
       <c r="C12" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D12" s="68" t="s">
+      <c r="D12" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="E12" s="68"/>
+      <c r="E12" s="75"/>
       <c r="F12" s="26"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="D13" s="68" t="s">
+      <c r="D13" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="68"/>
+      <c r="E13" s="75"/>
       <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="D14" s="65" t="s">
+      <c r="D14" s="72" t="s">
         <v>90</v>
       </c>
       <c r="E14" s="29" t="s">
@@ -2572,14 +2590,14 @@
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="D15" s="66"/>
+      <c r="D15" s="73"/>
       <c r="E15" s="29" t="s">
         <v>89</v>
       </c>
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="D16" s="67"/>
+      <c r="D16" s="74"/>
       <c r="E16" s="29" t="s">
         <v>11</v>
       </c>
@@ -2591,21 +2609,21 @@
       </c>
     </row>
     <row r="21" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="E21" s="68" t="s">
+      <c r="E21" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="F21" s="68"/>
+      <c r="F21" s="75"/>
       <c r="G21" s="26"/>
     </row>
     <row r="22" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="E22" s="68" t="s">
+      <c r="E22" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="68"/>
+      <c r="F22" s="75"/>
       <c r="G22" s="6"/>
     </row>
     <row r="23" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="E23" s="65" t="s">
+      <c r="E23" s="72" t="s">
         <v>90</v>
       </c>
       <c r="F23" s="29" t="s">
@@ -2614,14 +2632,14 @@
       <c r="G23" s="6"/>
     </row>
     <row r="24" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="E24" s="66"/>
+      <c r="E24" s="73"/>
       <c r="F24" s="29" t="s">
         <v>89</v>
       </c>
       <c r="G24" s="6"/>
     </row>
     <row r="25" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="E25" s="67"/>
+      <c r="E25" s="74"/>
       <c r="F25" s="29" t="s">
         <v>11</v>
       </c>
@@ -2976,7 +2994,7 @@
       <c r="B20" t="s">
         <v>128</v>
       </c>
-      <c r="C20" s="73" t="s">
+      <c r="C20" s="80" t="s">
         <v>122</v>
       </c>
       <c r="D20" s="45" t="s">
@@ -3044,7 +3062,7 @@
       </c>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="C21" s="73"/>
+      <c r="C21" s="80"/>
       <c r="D21" s="46" t="s">
         <v>18</v>
       </c>
@@ -3070,7 +3088,7 @@
       <c r="X21" s="41"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="C22" s="72" t="s">
+      <c r="C22" s="79" t="s">
         <v>124</v>
       </c>
       <c r="D22" s="45" t="s">
@@ -3138,7 +3156,7 @@
       </c>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="C23" s="72"/>
+      <c r="C23" s="79"/>
       <c r="D23" s="46" t="s">
         <v>18</v>
       </c>
@@ -3164,7 +3182,7 @@
       <c r="X23" s="41"/>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="C24" s="72" t="s">
+      <c r="C24" s="79" t="s">
         <v>129</v>
       </c>
       <c r="D24" s="46" t="s">
@@ -3232,7 +3250,7 @@
       </c>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="C25" s="72"/>
+      <c r="C25" s="79"/>
       <c r="D25" s="46" t="s">
         <v>3</v>
       </c>
@@ -3285,7 +3303,7 @@
       <c r="D32" s="48"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B33" s="69" t="s">
+      <c r="B33" s="76" t="s">
         <v>90</v>
       </c>
       <c r="C33" s="49" t="s">
@@ -3294,14 +3312,14 @@
       <c r="D33" s="6"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B34" s="70"/>
+      <c r="B34" s="77"/>
       <c r="C34" s="49" t="s">
         <v>88</v>
       </c>
       <c r="D34" s="6"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B35" s="71"/>
+      <c r="B35" s="78"/>
       <c r="C35" s="49" t="s">
         <v>11</v>
       </c>
@@ -3342,21 +3360,21 @@
       <c r="B4" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="75" t="s">
         <v>135</v>
       </c>
-      <c r="D4" s="68"/>
+      <c r="D4" s="75"/>
       <c r="E4" s="26"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="68"/>
+      <c r="D5" s="75"/>
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C6" s="74" t="s">
+      <c r="C6" s="81" t="s">
         <v>90</v>
       </c>
       <c r="D6" s="29" t="s">
@@ -3365,14 +3383,14 @@
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C7" s="74"/>
+      <c r="C7" s="81"/>
       <c r="D7" s="29" t="s">
         <v>89</v>
       </c>
       <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C8" s="74"/>
+      <c r="C8" s="81"/>
       <c r="D8" s="29" t="s">
         <v>11</v>
       </c>
@@ -3460,11 +3478,11 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="75" t="s">
         <v>140</v>
       </c>
-      <c r="D5" s="68"/>
-      <c r="E5" s="75" t="s">
+      <c r="D5" s="75"/>
+      <c r="E5" s="82" t="s">
         <v>141</v>
       </c>
       <c r="F5" s="26"/>
@@ -3473,7 +3491,7 @@
       <c r="I5" s="26"/>
       <c r="J5" s="26"/>
       <c r="K5" s="26"/>
-      <c r="L5" s="75" t="s">
+      <c r="L5" s="82" t="s">
         <v>142</v>
       </c>
       <c r="M5" s="26"/>
@@ -3484,18 +3502,18 @@
       <c r="R5" s="26"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="68"/>
-      <c r="E6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="82"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
-      <c r="L6" s="75"/>
+      <c r="L6" s="82"/>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
@@ -3504,20 +3522,20 @@
       <c r="R6" s="6"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="C7" s="74" t="s">
+      <c r="C7" s="81" t="s">
         <v>90</v>
       </c>
       <c r="D7" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="E7" s="75"/>
+      <c r="E7" s="82"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
-      <c r="L7" s="75"/>
+      <c r="L7" s="82"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
@@ -3526,18 +3544,18 @@
       <c r="R7" s="6"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="C8" s="74"/>
+      <c r="C8" s="81"/>
       <c r="D8" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="E8" s="75"/>
+      <c r="E8" s="82"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
-      <c r="L8" s="75"/>
+      <c r="L8" s="82"/>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
@@ -3546,18 +3564,18 @@
       <c r="R8" s="6"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="C9" s="74"/>
+      <c r="C9" s="81"/>
       <c r="D9" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="75"/>
+      <c r="E9" s="82"/>
       <c r="F9" s="30"/>
       <c r="G9" s="30"/>
       <c r="H9" s="30"/>
       <c r="I9" s="30"/>
       <c r="J9" s="30"/>
       <c r="K9" s="30"/>
-      <c r="L9" s="75"/>
+      <c r="L9" s="82"/>
       <c r="M9" s="30"/>
       <c r="N9" s="30"/>
       <c r="O9" s="30"/>
@@ -3619,17 +3637,17 @@
       <c r="C7" s="6"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B8" s="79" t="s">
+      <c r="B8" s="86" t="s">
         <v>116</v>
       </c>
       <c r="C8" s="54"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B9" s="80"/>
+      <c r="B9" s="87"/>
       <c r="C9" s="55"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B10" s="81"/>
+      <c r="B10" s="88"/>
       <c r="C10" s="56"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -3650,30 +3668,30 @@
       <c r="C15" s="6"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B16" s="82" t="s">
+      <c r="B16" s="89" t="s">
         <v>147</v>
       </c>
       <c r="C16" s="57"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B17" s="82"/>
-      <c r="C17" s="83"/>
+      <c r="B17" s="89"/>
+      <c r="C17" s="90"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B18" s="82"/>
-      <c r="C18" s="83"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="90"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B19" s="82"/>
-      <c r="C19" s="83"/>
+      <c r="B19" s="89"/>
+      <c r="C19" s="90"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B20" s="82"/>
-      <c r="C20" s="83"/>
+      <c r="B20" s="89"/>
+      <c r="C20" s="90"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B21" s="82"/>
-      <c r="C21" s="84"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="91"/>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
@@ -3693,17 +3711,17 @@
       <c r="C26" s="6"/>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B27" s="76" t="s">
+      <c r="B27" s="83" t="s">
         <v>150</v>
       </c>
       <c r="C27" s="58"/>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B28" s="77"/>
+      <c r="B28" s="84"/>
       <c r="C28" s="59"/>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B29" s="78"/>
+      <c r="B29" s="85"/>
       <c r="C29" s="60"/>
     </row>
   </sheetData>
@@ -3723,134 +3741,273 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1AB862A-2292-415E-8B92-635D070D5EEB}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="86"/>
-    <col min="2" max="2" width="27" style="86" customWidth="1"/>
-    <col min="3" max="3" width="27.625" style="86" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="86"/>
+    <col min="1" max="1" width="9" style="64"/>
+    <col min="2" max="2" width="27" style="64" customWidth="1"/>
+    <col min="3" max="3" width="27.625" style="64" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="64"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="63" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="64" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="63" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="88"/>
+      <c r="B6" s="66"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="87" t="s">
+      <c r="A7" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="88"/>
+      <c r="B7" s="66"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="89" t="s">
+      <c r="A8" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="88"/>
+      <c r="B8" s="66"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="85" t="s">
+      <c r="A11" s="63" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="87" t="s">
+      <c r="A12" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="88"/>
+      <c r="B12" s="66"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="87" t="s">
+      <c r="A13" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="88"/>
+      <c r="B13" s="66"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="89">
+      <c r="A14" s="67">
         <v>42095</v>
       </c>
-      <c r="B14" s="88"/>
+      <c r="B14" s="66"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="89">
+      <c r="A15" s="67">
         <v>42096</v>
       </c>
-      <c r="B15" s="88"/>
+      <c r="B15" s="66"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="89">
+      <c r="A16" s="67">
         <v>42097</v>
       </c>
-      <c r="B16" s="88"/>
+      <c r="B16" s="66"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="85" t="s">
+      <c r="A19" s="63" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="87" t="s">
+      <c r="A20" s="65" t="s">
         <v>1</v>
       </c>
       <c r="B20" s="6"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="87" t="s">
+      <c r="A21" s="65" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="6"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="90" t="s">
+      <c r="A22" s="92" t="s">
         <v>147</v>
       </c>
       <c r="B22" s="57"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="90"/>
-      <c r="B23" s="83"/>
+      <c r="A23" s="92"/>
+      <c r="B23" s="90"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="90"/>
-      <c r="B24" s="83"/>
+      <c r="A24" s="92"/>
+      <c r="B24" s="90"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="90"/>
-      <c r="B25" s="83"/>
+      <c r="A25" s="92"/>
+      <c r="B25" s="90"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="90"/>
-      <c r="B26" s="83"/>
+      <c r="A26" s="92"/>
+      <c r="B26" s="90"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="90"/>
-      <c r="B27" s="84"/>
+      <c r="A27" s="92"/>
+      <c r="B27" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="B26:B27"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F484366-397B-42E8-92CF-3EF48961D484}">
+  <dimension ref="A1:C29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="6"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="6"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="6"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="6"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="6"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="14">
+        <v>42095</v>
+      </c>
+      <c r="B14" s="6"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="14">
+        <v>42096</v>
+      </c>
+      <c r="B15" s="6"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="14">
+        <v>42097</v>
+      </c>
+      <c r="B16" s="6"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="6"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" s="93" t="s">
+        <v>116</v>
+      </c>
+      <c r="B22" s="54"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" s="93"/>
+      <c r="B23" s="55"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" s="93"/>
+      <c r="B24" s="56"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="B28" s="41"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="B29" s="41"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A22:A24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4050,13 +4207,13 @@
       <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C12" s="61" t="s">
+      <c r="C12" s="68" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C13" s="61"/>
+      <c r="C13" s="68"/>
       <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
@@ -4199,13 +4356,13 @@
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C10" s="62" t="s">
+      <c r="C10" s="69" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C11" s="62"/>
+      <c r="C11" s="69"/>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -4594,7 +4751,7 @@
       <c r="D6" s="21"/>
     </row>
     <row r="7" spans="1:4" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="70" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="22" t="s">
@@ -4604,7 +4761,7 @@
       <c r="D7" s="24"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="64"/>
+      <c r="A8" s="71"/>
       <c r="B8" s="18" t="s">
         <v>38</v>
       </c>
@@ -4627,7 +4784,7 @@
       <c r="C13" s="21"/>
     </row>
     <row r="14" spans="1:4" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="63" t="s">
+      <c r="A14" s="70" t="s">
         <v>36</v>
       </c>
       <c r="B14" s="22" t="s">
@@ -4636,7 +4793,7 @@
       <c r="C14" s="24"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="64"/>
+      <c r="A15" s="71"/>
       <c r="B15" s="18" t="s">
         <v>38</v>
       </c>
@@ -4658,7 +4815,7 @@
       <c r="C19" s="21"/>
     </row>
     <row r="20" spans="1:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="63" t="s">
+      <c r="A20" s="70" t="s">
         <v>36</v>
       </c>
       <c r="B20" s="22" t="s">
@@ -4667,7 +4824,7 @@
       <c r="C20" s="24"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="64"/>
+      <c r="A21" s="71"/>
       <c r="B21" s="18" t="s">
         <v>38</v>
       </c>
@@ -4695,7 +4852,7 @@
       <c r="F25" s="21"/>
     </row>
     <row r="26" spans="1:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="63" t="s">
+      <c r="A26" s="70" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="22" t="s">
@@ -4707,7 +4864,7 @@
       <c r="F26" s="24"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="64"/>
+      <c r="A27" s="71"/>
       <c r="B27" s="18" t="s">
         <v>38</v>
       </c>
@@ -4754,7 +4911,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="63" t="s">
+      <c r="A32" s="70" t="s">
         <v>36</v>
       </c>
       <c r="B32" s="22" t="s">
@@ -4768,7 +4925,7 @@
       <c r="F32" s="24"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A33" s="64"/>
+      <c r="A33" s="71"/>
       <c r="B33" s="18" t="s">
         <v>38</v>
       </c>
@@ -4801,7 +4958,7 @@
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="63" t="s">
+      <c r="A38" s="70" t="s">
         <v>36</v>
       </c>
       <c r="B38" s="22" t="s">
@@ -4813,7 +4970,7 @@
       <c r="F38" s="24"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A39" s="64"/>
+      <c r="A39" s="71"/>
       <c r="B39" s="18" t="s">
         <v>38</v>
       </c>
@@ -4844,7 +5001,7 @@
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="63" t="s">
+      <c r="A44" s="70" t="s">
         <v>36</v>
       </c>
       <c r="B44" s="22" t="s">
@@ -4856,7 +5013,7 @@
       <c r="F44" s="24"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A45" s="64"/>
+      <c r="A45" s="71"/>
       <c r="B45" s="18" t="s">
         <v>38</v>
       </c>
@@ -4926,7 +5083,7 @@
       <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="71" t="s">
         <v>51</v>
       </c>
       <c r="B7" s="25" t="s">
@@ -4935,7 +5092,7 @@
       <c r="C7" s="26"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="64"/>
+      <c r="A8" s="71"/>
       <c r="B8" s="25" t="s">
         <v>54</v>
       </c>
@@ -4995,7 +5152,7 @@
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="64" t="s">
+      <c r="A19" s="71" t="s">
         <v>51</v>
       </c>
       <c r="B19" s="25" t="s">
@@ -5008,7 +5165,7 @@
       <c r="G19" s="26"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="64"/>
+      <c r="A20" s="71"/>
       <c r="B20" s="25" t="s">
         <v>60</v>
       </c>
@@ -5051,7 +5208,7 @@
       <c r="E25" s="6"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="64" t="s">
+      <c r="A26" s="71" t="s">
         <v>51</v>
       </c>
       <c r="B26" s="25" t="s">
@@ -5062,7 +5219,7 @@
       <c r="E26" s="26"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="64"/>
+      <c r="A27" s="71"/>
       <c r="B27" s="25" t="s">
         <v>60</v>
       </c>
@@ -5129,7 +5286,7 @@
       <c r="C37" s="6"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A38" s="64" t="s">
+      <c r="A38" s="71" t="s">
         <v>51</v>
       </c>
       <c r="B38" s="25" t="s">
@@ -5138,7 +5295,7 @@
       <c r="C38" s="26"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A39" s="64"/>
+      <c r="A39" s="71"/>
       <c r="B39" s="25" t="s">
         <v>53</v>
       </c>
